--- a/dados_teste.xlsx
+++ b/dados_teste.xlsx
@@ -443,1400 +443,1400 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Não terminei de ler por que a história não estava me agradando e a linguagem criada para o livro confunde muito. Ao final do livro tem um glossário das palavras, mas é muito trabalhoso ver o significado de cada palavra por que são muitas. Algumas eu conseguia entender, mas a maioria acabou se perdendo, o que tornou a leitura mais cansativa ainda. Não voltaria a reler o que é uma pena, pois Laranja Mecânica é considerada um dos "pais" da distopia, gênero que adoro.</t>
+          <t>Livros e caixa vieram danificados. Parte externa dos livros (dobras) vieram com cola. Caixa amassada e rasgada. Ainda vou ter o trabalho de ir ao correio e pagar para devolver o produto. Dizem que reembolsam o frete depois. Veremos! Seguem as fotos!</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Comecei a ler esse livro porque amei o anterior e fiquei curiosa sobre a continuação,mas me decepcionei completamente! Totalmente desnecessário e pra usar palavras fofas,diria que é chato! Não gostei nem um pouco!</t>
+          <t>A "obra" é uma fraude completa. O autor é um astrólogo que se diz filósofo e é reconhecidamente um embusteiro e foi, de forma reiterada, desmascarado por acadêmicos. A obra contém uma série de chavões que podem ser lidos em parachoques de caminhões.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Achei muito fraquinho... mas também é Jojo Moyes, não una Elena ferrante. O outro que li dela, a garota que vc deixou pra trás ... esse eu adorei! Foi o único!</t>
+          <t>Trata de modo superficial o tema da velocidade na leitura. Serve apenas como um primeiro contato com a ideia de leitura dinâmica.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Que história chata! Personagens chatos, diálogos infantis... Parece ter sido escrito por uma menina de 12 anos! Horrível!!!</t>
+          <t>Descreve um relacionamento abusivo, que é bem diferente de dominação no sexo. O fato de o protagonista masculino, Arthur, estar confuso com seus sentimentos não justifica a forma brutal que usa para se relacionar com Maiana. A persegue na faculdade puxando-a pelo braço com violência. Inicia sexo com ela sem seu consentimento, mesmo quando ela diz não querer, a segurando com brutalidade, sem dar opçao pra ela se negar ao sexo. Maiana, inocente, acaba cedendo pois se excita quando ele a manipula. Isso não me excita e não deve ser considerado normal. Também existe estupro entre um casal. Há quem goste. Não gostei. Arthur não me conquistou. O sexo é forçado. As vezes parece estar presente excessivamente para encher página. A perda da virgindade da protagonista é nada realista, nada realista MESMO! Indico outros livros da autora como O calor do sertão continua e Pecadora. São 5 estrelas.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Esse é o típico livro que te passa uma cartilha caso você deseje jogar o jogo do mundo dos negócios. Um teatro, onde vc finge ser o que não é para ter o mínimo de empecilhos possíveis.</t>
+          <t>O box chegou com amassados, riscos e com uma espécie de cola grudada na parte externa dos livros. Única vantagem que vi foi o tempo de entrega de 2 dias, porém esperava muito mais de uma empresa como a Amazon.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Quando vi o lançamento pensei que finalmente poderia me livrar dos ebook distribuídos pela net de graça, quando vi o preço mudei de ideia, espero que ninguém compre, queremos livros digitais e democráticos com preços acessíveis, não somos trampolim para a riqueza, um livro digital não utiliza tinta ou papel, não precisa de distribuição física e dispensa muita mão de obra, tudo isso deveria contribuir para que o valor fosse mais acessível.</t>
+          <t>Um babaca achando que sabe de alguma coisa relevante a humanidade.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Supostamente baixei este livro gratis apos uma promoçao de vocês, mas na verdade o download não foi realizado. Houvr algun problema?</t>
+          <t>Decidi ler esse livro porque um colega o recomendou, afirmando que a qualidade era excelente e minha qualidade de vida melhoraria. O livro é simplesmente uma peça de propaganda barata repleta de afirmações clichês, como por exemplo "o milagre da manhã vai ajudar a conquistar o que você quiser", "você vai encontrar a riqueza, sucesso, desenvolvimento, o amor" e por aí vai. As 60 primeiras páginas são compostas de dezenas de relatos auto-afirmativos de pessoas que supostamente "descobriram" o milagre da manhã e da história clichê de filme de Hollywood na qual o autor é supostamente um jovem de 20 anos muito "bem sucedido" e sofre um acidente de carro e morre por 6 minutos e depois volta à vida. Baboseira emotiva que dá todo o tom do livro a seguir. Depois o autor segue com várias afirmações absurdas sobre como o pensamento positivo influência a realidade ao seu redor. Isso é até esperado. A parte mais absurda é quando o autor Hal Elrod afirma que a quantidade de horas que você dorme não importa. Se você dorme 4 horas por dia e tem pensamento positivo, isso já é o suficiente para ficar bem, segundo o autor. Sinceramente, não perca seu tempo nem dinheiro com esse livro</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Livro cansativo, com exemplos repetivos, e que poderia ser resumido em poucas frases. É isso, não gostei... nunca tinha lido livros deste gênero.</t>
+          <t>Impossível ler, já pedi várias vezes, não sei mais o que fazer para receber o livro. Lamentável, lamentável, lamentável, lamentável</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>achei o livro muito pesado, em razão da traição, em todos os outros livros de Nana o personagem principal não traí a amada. Pra mim a traição acabou com a história de amor.</t>
+          <t>Por ser versão pocket se espera uma qualidade inferior, mas mesmo assim decepcionou. As folhas são brancas e transparentes, da para ver o verso. Por ser pequeno e com grande número de páginas, a leitura se torna desconfortável, não tem como segurar o livro direito. Mas claro pra quem quer economizar e é persistente, a leitura é possível.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A tecnologia do kindle é fantástica, porém o livro é muito confuso. Não segue uma ordem de um capítulo pro outro. Eu acredito que livro poderia ser melhorado, de forma que fizesse mais sentido.</t>
+          <t>Comprei um box da trilogia para presentear uma pessoa, e ao chegar o box dos livros estava danificada. Como vou presentear alguem com o presente "estragado"?!</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Meu Box veio rasgado.</t>
+          <t>Horrível o livro. Esperei tanto tempo por ele e simplesmente me decepcionou. Na minha opinião deixou a história sem fim.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>o livro apresenta ideias obvias , como : trate bem seus funcionarios , trate as pessoas como deseja ser tratado ,etc. Isso é contado por meio de personagens Estereótipo , ( o ranzinza , a certinha , etc.)  é tão chato e obvio que suas 140 paginas poderiam ser compiladas em 20 , apresentando-as de forma detalhada . Li o livro em 3 semanas , sendo que já li livros de 500 paginas em 1 semana . posso não ter gostado do livro por ter sido obrigado a ler para um trabalho da escola , mas essa é a minha opinião sobre ele.</t>
+          <t>Ainda estou esperando as reviravoltas prometidas. Achei a protagonista pedante e dramática, e desde o meio do livro já sabia quem era o verdadeiro assassino. Anotado mais uma decepção com best-sellers</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Frustração resume....A série deveria ter acabado no quarto livro, o quinto foi pra encher linguiça,  dando voltas em assuntos bobos...odiei,  só o lindo do Gidion pra salvar a chatisse da Eva...A autora continua com sua escrita inteligente,  porém deixou muito a desejar.</t>
+          <t>Comprovou aquilo que eu já previa, ou seja, que não havia mesmo conteúdo para um terceiro livro. Nada de novo na narrativa, apenas mais do mesmo. O primeiro livro da trilogia foi inovador, o segundo complementou o primeiro, porém já sem tanta novidade e o terceiro, pelo menos para mim, foi um verdadeiro fiasco. Só li por curiosidade, por ter lido os 2 anteriores e realmente não gostei. O final até que prendeu um pouco a minha atenção, porém 95% do livro não.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Eu esperava um livro mais profundo pelas altas avaliações e comentários em geral, porém achei um livro muito raso, parece q você está lendo o diário do autor. O livro passa uma boa mensagem, porém para quem já leu vários livros de autoajuda, vai achar esse livro muito superficial.</t>
+          <t>O conteúdo do livro em si é bom (as técnicas e assuntos que ele aborda são, de fato, muito importantes). Entretanto, o livro tem uma abordagem de auto ajuda, com generalizações sem sentido, usando aquela abordagem prescritiva que promete 100% de sucesso a todos que seguirem as "dicas mágicas e infalíveis" do livro, simplificando demasiadamente o assunto. O livro é mal escrito também, confuso em algumas partes, e a todo momento você não sabe se o autor está falando de algo academicamente comprovado, se existem estudos práticos, se é opinião/experiência pessoal, ou se tem a ver com a fé dele (sim, existem várias opiniões religiosas inseridas junto ao texto). Enfim, ruim! Não dou nota 1 porque, apesar de mal escrito, o que o livro prescreve, de fato, é algo que funciona muito bem na imensa maioria dos casos e o brasileiro médio viveria muito melhor se seguisse as dicas.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Não percebi uma poesia de boa qualidade. Talvez seja por demais simplista praticamente. Como manifesto feminista contemporâneo vale. Como poesia carece de lirismo.</t>
+          <t>O mínimo que você precisa saber para não ser um idiota é saber que ler esse livro tem grandes chances de tornar você um idiota.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A meu ver, não entendo o motivo de este livro estar entre os mais vendidos. Um conto feito em forma de poesias com uma visão feminina. Alguns poemas tem frases de impacto e palavras interessantes e marcantes. Porém, em diversos trechos, não vi apelo.</t>
+          <t>é mais sobre a vida da autora do que finanças, que cai entre nós fugiu muito da minha realidade talvez por isso gostei menos ainda. Enfim parece que eu estava assistindo um video do tedtalk para levantar minha autoestima. O canal dela tem mais conteúdo do que o livro.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Apesar de se dizer diferente, não traz nada de novo e repete as fórmulas de  todos os livros sobre o assunto. Conselhos como "conseguir um bom consultor financeiro" ou "investir em imóveis" ? Não precisamos de livros para saber de coisas óbvias. Não costumo ler este tipo de coisa,  mas, decidi dar uma chance e lê-lo para tentar ter outras perspectivas sobre livros de auto-ajuda.  Infelizmente não foi o caso e esse livro só confirmou o que sempre achei.</t>
+          <t>O pedido chegou atrasado 3 dias e quando recebi, a caixa veio rasgada nos dois lados. É um absurdo fazer uma compra cara para obter um produto danificado, o sentimento de frustração é grande. Apesar de terem resolvido comigo um valor de reembolso (baixíssimo) pelo dano, não repara o desagrado jamais! É uma pena que os produtos comprados não tenham o cuidado devido e nem uma fiscalização para perceber o dano antes de chegar nas mãos do cliente. Sem duvidas não recomendarei a compra online pela AMAZON para ninguém, principalmente se for coleccionador.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Comprei meus tão esperados livros e meu Box veio rasgado. Essa compra foi realizada em NOVEMBRO e até hoje não foi feita a troca do produto.</t>
+          <t>Péssimo. O autor claramente tem um visão distorcida das evidências arqueológicas e do Darwinismo e passa aos leitores conclusões e opiniões equivocadas. Sua visão ultrapassada do "bom selvagem" faz crer que era melhor a vida de coletores e caçadores que as dos agricultores que se seguiram.  Trata-se de conclusão absolutamente absurda, ignorando o fato o de os últimos terem crescido, desenvolvido e dominaram o planeta. É risível sua afirmação de que a escolha pela agricultura tenha sido feita pelo "trigo" e não pelo homem, ou que esse erro só tenha permanecido assim é o humano não tenha voltado "á boa vida de selvagem" porque se encontrou em uma armadilha sem volta. PATÉTICO E DESEDUCADOR.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Coaching virou um grande modismo, assim como criticá-lo. Uma infeliz realidade, preciso assumir, como um profundo amante do autodesenvolvimento. Consegui obter diversos insights úteis durante a leitura (ou seja, de qualquer forma dá pra extrair boas ideais), mas como de praxe no mundo do "coaching", as páginas começam a se encher de mensagens e afirmações sem embasamento nenhum, uma verdadeira compilação de achismo e falsas verdades, baseadas em princípios infudados tirados da cabeça do autor (e de fontes semelhantes ao próprio) sem comprovações impíricas válidas ou qualquer alicerce científico que os sustente. Muito pelo contrário, o livro conta com frequentes exemplos e citações que não passam, descancaradamente, de pseudociência, com um toque de sensacionalismo e até mesmo charlatanismo. Além de várias referências sem fontes, sendo várias parcialmente falsas, isto é, ou o escritor é muito inocente, ou manipulador, com o intuito de corrobar suas ideais, e ambos os casos não fazem jus ao seu título de PhD. E já estava esquecendo dos inúmeros depoimentos, que são no mínimo, levemento modificados, para parecerem mais grandiosos. Em resumo, se você procura por um livro do nível de O Poder do Hábito, não (não mesmo) recomendo a leitura. Mas caso você só queira obter alguns insights sobre o seu poder sobre sua vida, e algumas dicas práticas, vale a leitura (ou não), desde que esteje muito atento a tantas ressalvas. P.S.: Sem querer encharquei o livro com café... Pelo menos não foi um livro bom rsrs.</t>
+          <t>Neste livro, a autora escreve uma série de versos que não têm lirismo e não pode se chamar de poesia. O livro parece mais a necessidade de fazer “literatura” similar a outras autoras que já publicaram livros similares por uma questão mercantil. Há autoras feministas muito melhores que os versos deste livro medíocre.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pelo menos no Livro 1 - A guerra dos tronos, a tradução lembra muito o português de Portugal. Expressões estranhas na nossa língua e uma versão diferente daquela apresentada no livro 1 vendido individualmente. Tentei contatar a editora, mas fui ignorado. Péssimo relacionamento com o cliente. A Amazon, obviamente, não tem responsabilidade sobre a qualidade duvidosa do produto da editora Leya.</t>
+          <t>Comprei os boxes pela primeira vez e o produto chegou em minhas mãos numa caixa bem danificada e ambos boxes (comprei 2) estavam machucados. Fiquei indignado como todo amante de livros. Entrei em contato com Amazon e recebi um excelente atendimento, solicitei troca, mandei os produtos de volta e recebi novos boxes ontem (05/09). A caixa veio em ótimo estado, porém um dos boxes veio com um grande "amassão" (ver fotos) e até com livro danificado. Visto que dessa vez a caixa veio quase em perfeitas condições, a conclusão que cheguei é que o produto já saiu danificado das lojas Amazon. Gosto muito da empresa, prestam um serviço incrível de atendimento ao cliente, mas dessa vez vacilaram feio. Não irei mandar o produto novamente porque há a possibilidade de me enviarem outro pior, o que pode até ter sido o caso desse.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Atender a que expectativa ? Só decepção desde do dia 11/05 que fiz o pedido pela primeira vez, o produto foi extraviado e pela segunda vez que peço até agora não veio.</t>
+          <t>incapaz de conviver com ideias diferentes na academia brasileira, resolveu estudar filosofia sozinho. Essa sua incapacidade, no entanto, é algo que marca toda a sua trajetória de vida, se traduzindo em uma profunda intolerância a qualquer pensamento divergente do seu.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chegou rápido. Incrivelmente rápido. Na embalagem ainda veio o box Percy Jackson e mais um livro pequeno. Não foram bem embalados e o box do HP veio rasgado e com o livro I amassado. Bem triste com isso</t>
+          <t>Este é um dos piores livros do ano, quiçá dos ultimos dez anos e uma leitura completamente dispensavél. Fuja disso.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>O livro se propõe a ser uma espécie de biografia do Homo sapiens. Infelizmente ele peca com inúmeras deficiências. Como pressuposto ele parte da teoria da evolução (o que é valido, porem deve-se recordar que como teoria o evolucionismo tem lacunas bastante relevantes). De positivo. O livro sem duvida tem uma linguagem bem clara e acessível. Além disso, em algumas passagens e reflexões o autor mostra algo muito importante: honestidade intelectual. A abordagem sobre os impérios é bem interessante. De negativo (alguns exemplos cito abaixo) As ilações e inferências sobre a Revolução Agrícola são bastante questionáveis. Pelo raciocínio do autor, levaríamos a conclusão de que a situação para a maioria dos humanos efetivamente piorou. No entanto, ele não desenvolve bem o raciocínio para justificar a razão do porque então os primeiros agricultores insistiram nas culturas. Deixa a desejar. O argumento dos “mitos imaginários”: estados, dinheiro, símbolos, empresas, etc... como fornecedor de um sustentáculo de cooperação coletiva é bem fraco. Ele se esquece, em absoluto, de que uma ser humano pode ter todo um conjunto de valores e “mitos imaginários” distintos de outro ser humano e colaborar. Basta ele entender, partindo de uma valoração subjetiva, que ele estará em melhor situação se cooperar, e outro assim também fazer o mesmo exercício. Isso se chama axioma da ação humana, sendo inerente a qualquer individuo que age. O capitulo sobre as religiões em lotado de informação equivocada e o capitulo sobre economia um desastre quase completo. Durante todo o capitulo ele fala sobre o papel do crédito e menciona muito brevemente (praticamente esquece) a taxa de juros, que tem um papel fundamental. Outra coisa. Para ser um livro tão abrangente notei que algumas afirmações mais assertivas, em alguns capítulos, tem incrivelmente muito pouca pesquisa bibliográfica para fundamentar. No geral: fiquei o tempo inteiro entre uma estrela (livro péssimo em razão de argumentos horríveis) e tres estrelas (bom livro). Na média decidi por duas estrelas.</t>
+          <t>Minha avaliação é zero. Comprei o livro achando que era físico, depois tentei cancelar o virtual pra comprar o físico e não consegui. Em lugar nenhum aparece uma opção de devolver ou cancelar a compra. Já debitaram em minha conta e não veio o download pra que eu pudesse baixar o livro. E também não me estornaram o valor. Esta é Minha primeira e última compra neste site.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Horrível. Sabe aquele livro que fala, fala é n diz nada, é o caso desse. Cita exemplos q n tem nada a ver com o tema do livro, com detalhes insignificantes, cansativo, cita experiências ridículas com animais...Não era nada do q eu esperava. Me arrependi de comprar.</t>
+          <t>Um dos pouquíssimos livros que eu não consegui ler até o final: é assertivo em questões que não foram comprovadas como se o tivessem sido, induzindo o leitor ao erro. Além do mais, a certa altura do livro livra-se do pudor do compromisso com os temas globalistas, deixando cair a máscara de militante. Apesar de ser um bestseller, eu não recomendo.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Este é um dos piores livros do ano, quiçá dos ultimos dez anos e uma leitura completamente dispensavél. Fuja disso.</t>
+          <t>Um dos livros faltam mais de 40 páginas. Ex.: Pula da pág 140 pra pág 193. Como foi um presente e a pessoa só viu quando estava lendo essa parte, perdemos o prazo de devolução.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Não tem nada indicando que é em português de Portugal, já é o terceiro ebook que comprei que acontece isso. Horrível.</t>
+          <t>Esse livro representa o que eu mais odeio na industria literária, uma "obra" mal feita, com péssima escrita e feita puramente para vender.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nossa, essa trilogia é a pior coisa que eu já li (junto de crepúsculo). Que coisa tenebrosa. Livro enrolado, cansativo, nada intrigante! DECEPÇÃO!!!!</t>
+          <t>Uma pena. Acreditei ser uma obra para ampliar o pensamento sobre a democracia como o definitivo 'establish' da sociedade humana. Ledo engano. Mais um livro para vender munição de festim para os ingênuos. Aqueles que querem ressonar com o discurso fácil, o argumento conveniente que desconsidera valores e princípios maiores de nossa natureza. Mais um pseudo intelectual tentando trabalhar falácias ameaçadoras sem nenhum compromisso com referências reais. Não perca seu tempo.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>As afirmações do autor, que é historiador, não têm bases científicas. São suposições baseadas em realidades que às vezes parecem existir apenas na mente do autor. Como por exemplo a afirmação de que a religião morreu. As atividades dos radicais islâmicos mostram o contrário (já ouviu falar do ISIS?). Outra afirmação, de que felicidade e tristeza são problemas técnicos e portanto serão solucionáveis via medicamentos e engenharia genética, não explica porque, com o passar do tempo e todo o avanço das biociências, os consultórios dos terapeutas têm ficado mais cheios (sem falar em todos os problemas com drogas). Para finalizar, o mote do livro é que a evolução humana, com todo o aparato técnico que teríamos, acabaria por nos transformar de humanos em deuses. A história lembra que todas as idéias desse tipo  sempre terminam com um grupo que tenta se sobrepor aos outros (lembra dos nazistas?). O melhor é que tenhamos avanço científico sim, mas os homens continuem a serem homens e as mulheres a serem mulheres.</t>
+          <t>Revoltada por não conseguir devolver este box. Chegou com 5 dias de atraso e quando solicitei o cancelamento (1 dia depois do atraso) foi um verdadeiro descaso. Não me retornam. Não consigo pegar o meu reembolso e nem devolver o produto.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>O autor trabalha com o pressuposto do surgimento fa raça humana única e exclusivamente através do Evolucionismo, o que discordo. Acredito que evoluímos a partir da Criação e que essa transformação tem sido contínua desde então.</t>
+          <t>Bem fraco. O autor é bem enviesado e não traz nada de novo ou relevante. Não recomendo pra ninguém. Abs</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A primeira coisa que devo dizer sobre o livro "Muito Mais que 5inco Minutos" é que o título é preciso. Consegui lê-lo em pouco mais de três horas, o que é, definitivamente, muito mais que cinco minutos. Ganhou pontos logo de cara pelo acerto cronológico e honestidade para com o leitor. "Muito Mais que 5inco Minutos" é claramente voltado a jovens naquela fase em que lutam furiosamente contra a explosão hormonal, apesar de uns lances estranhos como falar de namoradinhos aos 8 (!) anos. Kéfera fala do seu primeiro beijo (aos 15), do nojo de "engolir a saliva de outra pessoa", dos traumas e horrores desse ponto tão conturbado da vida, sempre usando a sua própria história como contexto, afinal é um livro da Kéfera, sobre a Kéfera, para os fãs da Kéfera. Isso parece invalidar qualquer assunto que não envolva o umbigo da Kéfera. Entre as páginas também aparecem umas fotos dela com o dedo indicador em riste, outras fazendo o símbolo demoníaco do rock'n'roll e algumas de um cachorro que, presumo, seja dela. O problema (ou qualidade) do relato é que é uma história banal, dessas que qualquer roteirista júnior recém-saído do seu curso de cinema pretensioso poderia bolar — sem nem estar chapado — e, ainda por cima, contada de uma forma rasa e sem graça. Posto de outra forma, é a história de vida daquela sua prima ou irmã de 15 anos que passa dias na fila para ver o show da última cantora da Disney e gasta R$ 500 em meet &amp;amp; greet para desgosto profundo dos seus pais. Minha crítica completa:(...)</t>
+          <t>Um título impactante, mas o conteúdo nem tanto. O autor chegar a ser bem redundante em vários capítulos, com temas evasivos e, pouca coerência, ou seja, corrobora o que outros escritores já disseram. Enfim, não gostei da forma de abordagem do autor, por vezes o achei infantil.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Odiei! A duas semanas tentando ler esse livro e não consigo progresso. Enredo previsível, a cada quatro palavras uma é um palavrão, menina chata e bocuda. Não recomendo esse livro!</t>
+          <t>Eu esperava um livro mais profundo pelas altas avaliações e comentários em geral, porém achei um livro muito raso, parece q você está lendo o diário do autor. O livro passa uma boa mensagem, porém para quem já leu vários livros de autoajuda, vai achar esse livro muito superficial.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Meu ponto de vista sobre o ultimo livro, fiquei bem decepcionada os outros livros eram mais rico em conteúdo, você se envolvia na historia, ficou muitas lacunas abertas oque aconteceu com a mae de Gideon , o livro de Corinne foi publicado?, oque aconteceu com Anne?, sem falar que o as coisas estavam bem menos apimentada. Enfim ficou tantas lacunas abertas que dava pra escrever outro livro.</t>
+          <t>o volume 5 esta com erro tem impressão, tem paginas duplicada e outras faltando</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Como uma criatura dessas consegue ser um”Influenciador”? Fútil, sem conteúdo, vazio... meu sobrinho de 9 anos o assistia mesmo sob nossos protestos, semana passada ele disse que não ia mais assistir porque parecia que o Felipe ensinava as pessoas a serem “burras”! Essa foi a conclusão dele! Imagine o livro...</t>
+          <t>Se você não é vendedor esqueça! O livro é muito fraco, ilusório e seu autor, lamentavelmente, só sabe falar de vendas e práticas utópicas que não te levarão a lugar algum! Muito fraco!</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ainda não terminei, estou nos 40%, devo ler em mais uns dois dias, mudando de opinião retifico o comentário. Salvo engano, auto-ajuda da pior qualidade, cheia de auto-elogios, auto-referências a produtos e sites do autor, escrito principalmente em primeira pessoa (eu isso, eu aquilo, como eu sou bom), cheio de contradições (o autor começa contando como ele era um vendedor bem sucedido, e no último ano de carreira resolveu se tornar o melhor da empresa, já em referência futura ele afirma que era um fracassado até esse último ano em que foi o melhor vendedor da empresa, curiosamente também não assume responsabilidade, afirma que ficou devendo meio milhão de dólares pela crise de 2008, e não porque gastava demais ou era ruim no que fazia). Sempre há uma justificativa de quanto ele é bom e sabe das coisas, e de como você é ruim, se não quiser fazer o que ele propõe. Chega ao absurdo de dizer que se você afirmar antes de dormir que acordará disposto, não faz diferença se dormir 3h, da mesma forma que se dormir 9h e pensar que não vai acordar bem por alguma razão, então não vai acordar bem. Mutatis mutandis, tanto faz as horas de sono, o que vale é seu pensamento positivo. O assustador é esse livro possuir 4,5 estrelas e um coaching famosinho de concursos o indicar como mantra de mudança de vida, só isso é um diagnóstico de quanto doente e ignorante é nossa sociedade atual.</t>
+          <t>A entrega foi rápida e sem dano de entrega, porem não tem como rastrear(isso é um erro da empresa que faz entrega e não permite rastreamento). O item chegou com defeito na caixa que faz parte de tudo, e isso me desapontou. Como é um presente, não abri a caixa ainda para ver se ha mais defeitos e nem tenho tempo de troca-lo(já que não ha nenhuma forma de reclamar para uma troca rápida, apenas devolver o produto). Vou ter que entregar o presente assim e aguardar o que acham(espero que não tenha outros defeitos), mas fiquei muito desapontado pois o produto esta danificado dentro do plastico, não foi um erro de entrega, ele simplesmente já veio assim.  Falta um controle de qualidade no envio para que nem saia de la um produto com defeito e alguma forma de contato rápido com a empresa para casos de produtos danificados.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Para quem gosta de livro de auto ajuda, acho que vão gostar.. eu não curti muito, pois não gosto deste estilo de livro.</t>
+          <t>Produto chegou Danificado com rasgos e amaçados na caixa q envolve a coleção e os livros estão com as capas riscadas . bem decepcionado pois era presente pra minha namorada</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Preço extremamente abusivo. Queria tê-lo original. Porém, leio a versão gratuita conseguida facilmente em sites que disponibilizam de graça livros para e-readers.</t>
+          <t>Livro prosaico. As primeiras paginas são legais. O resto é pura inutilidade de autoajuda. A prova do que um bom título pode fazer por uma obra prosaica.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DEVERIA SE CHAMAR Dale O CONTADOR DE HISTORIAS O LIVRO E UM AMONTOADO DE HISTORIAS E POUQUÍSSIMAS DICAS. O LIVRO E TAO BEM FALADO, QUANDO EU FUI LE, ME DECEPCIONEI.</t>
+          <t>muito decepcionado com este box, ele é Pocket, folhas finas demais, tem cola estragando as capas, mais essa foi a primeira vez que não fico satisfeito com a amazon.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Particularmente não sou de livro de auto ajuda, porém de tanto ouvir falar nesse livro acabei comprando (ainda bem que foi numa promoção). O livro não tem nada de diferente, achei uma leitura chata e sempre o mais do mesmo. Tudo que sabemos mas que não praticamos na maioria das vezes. Dei duas estrelas pela capa, achei a melhor parte do livro.</t>
+          <t>Livro apenas comenta sobre o que é leitura rápida. Realmente decepcionante. Gostaria de obter meu dinheiro de volta. Não comprem!</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Tinha os elementos para ser aquele chiche gostoso, mas não curti. O livro fala muito sobre o acordo não ser ilegal, mas se coagir alguém ao "casamento" sob ameaças não for ilegal esta sociedade está mesmo perdida. A química entre o casal logo no início é exagerada. Sofia tem um começo muito irritante. A cada reação, grito, tapa, que dava era "Ai meu Deus, não sou assim. Eu não respondo. Não sou agressiva!" Chata!! Heitor comete estupro naquele apartamento em New York.  O tratamento possessivo passa muito do limite entre excitante e abuso. O castigo de Heitor foi bom, mas o livro deveria ter acabado no máximo 30 páginas depois, o que já daria um ótimo epilogo, mas o texto se arrasta interminavelmente sem nenhum acontecimento. Muito cansativo!</t>
+          <t>é um livro bom, mas existe coisas que poderiam mudar.Eu esperava mais do livro, pois vi outro comentários,mas gosto é gosto</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fiquei muito na dúvida se postaria ou não algo sobre esse livro, porque eu não queria propagar opinião “negativa” de um livro escrito por mulher. Mas, por outro lado, deixar de comentá-lo seria hipocrisia da minha parte, pois estaria apenas com medo do que as pessoas vão pensar de mim. Sendo assim, deixei o medo de lado e escolhi optar por deixar registrada a minha opinião sobre a obra. É fato que a autora conseguiu deixar bastante claras as suas opiniões usando uma pequena frase. Ela consegue deixar um nó na garganta do leitor, incomoda, dói e te faz pensar: essa menina passou mesmo por tudo isso? Essa pergunta acontece porque parece tão real, tão cru o modo como ela fala das coisas do coração, corpo e alma. Eu fiquei preocupada com ela em vários momentos, sério. A Rupi Kaur é uma poetisa da geração instapoesia. Bom, foi exatamente por esse motivo que eu não gostei do livro. E tudo bem! Não sou menos feminista por causa disso, eu apenas gosto de outros jeitos de poesia. Porém, apesar de não curtir muito a instapoesia, não sou estúpida de achar esse um livro sem relevância. Eu super acho incrível saber que de um modo simples e rápido as pessoas de qualquer parte do mundo têm a oportunidade de conhecer assuntos como empoderamento feminino, amor, violência contra mulher e autoestima. Tudo isso é valioso para o momento histórico-social que as mulheres estão enfrentando. (Clube Nem Tudo é Ficção)</t>
+          <t>Escrita pobre (e tradução ruim), com personagens e diálogos superficiais. O cenário histórico, ao menos, é interessante. Muito inferior ao Pilares da Terra.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nas primeiras páginas já temos o propósito do livro. Depois, pura repetição.</t>
+          <t>Não gostei muito do livro, ele é todo escrito em formas de emails e mensagens, me deu a impressão de que ninguém nunca se encontra e quando marcam de se encontrar não tem aquela emoção porque o leitor só sabe por mensagem, como "a festa foi legal", "foi bom te ver"... não tem aquela emoção no final de cada capítulo que te faz querer ler mais e mais. Essa é minha opinião, mas uma amiga minha gostou e achou diferente.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Esperava um livro com técnicas, mas não há nada de tecnicas. O autor compara o leitor varias vezes mostrando que quem está lendo esse livro não é um bom leitor. Joguei dinheiro fora. Péssimo livro por que não se alcança o objetivo proposto.</t>
+          <t>Venho por meio deste, expressar meu desapontamento com a loja virtual da Amazon. Ja estou aguardando a disponibilidade do livro "Harry Potter e a ordem da Fenix" a meses, e o produto continua indisponível sem mais explicações ou prazos de disponibilidade. Adquiri o Kindle pela praticidade e o produto nao atendeu minhas expectativas por conta desse tipo de produto indisponível!</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Boa estória. Quis ler antes de ver o filme, que na época fez sucesso. A experiência de usar o glossário na versão digital foi massacrante, pois tinha que marcar a página para voltar onde tinha parado e a linguagem diferente causava confusão ao tentar continuar a leitura, tendo muitas vezes que reler a frase ou parágrafo.</t>
+          <t>Não gosto de ler livros divulgados por famosos sem histórico de leitura. Não gosto de literatura que cai no gosto das massas, principalmente da literatura que segue uma tendência de um grupo específico e que traz a reboque uma malta que jamais abriu as páginas de literatura de verdade. E este livro ruim e panfletário de Atwood não foge a regra. Atwood cria uma situação que nunca aconteceu, mas tenta divulgá-la como algo que já existe. De todas as distopias literárias famosas, as sociedades totalitárias foram criadas justamente por pessoas que pensavam como as feministas radicais de hoje, ou seja, pessoas que entendem que suas interpretações da realidade são irrefutáveis. Já li uma entrevista da autora e ela diz não pensar assim, ela entende que nem tudo que as feministas pensam seja correto. No entanto, o movimento feminista do século xxi utiliza a obra fraca de Atwood para atacar seu inimigos invisíveis. Ataque que é facilitado pela facilidade de manipular uma meninada sem cultura livresca e que está sempre disposta a seguir movimentos populares.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>O livro apresenta algumas ideias interessantes, mas na maior parte do tempo de torna superficial e grosseiro. Não vale o investimento.</t>
+          <t>No início achei  interessante, a garota virgem que se apaixona por um  homem mais experiente... Depois foi ficando cansativo, as cenas são petitiivas.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pedi o livro baseado na promoção q era de graça. Não autorizo está compra. Ajustem o site de vcs para evitar tais desconfortos. Dória tem razão... e vcs não cumpriram com a palavra. Não aceito pagar R$21,00 por este livro, pois estava informando q era gratuito</t>
+          <t>Minha avaliação negativa não vai para a obra de Tolkien e sim para a qualidade do livro,nas avaliações de clientes alguém afirma que o livro tem folhas amareladas e se baseando nessa informação que eu até então achava confiável comprei o livro sem nem pensar duas vezes,para minha surpresa hoje recebi o livro com folhas brancas! de péssima qualidade quase transparentes agora imagine alguém míope lendo um livro com folhas brancas e uma fonte pequena eu tenho a sensação de estar lendo uma bula de remédio ,no entanto quando contatei a amazon sobre o meu problema eles foram muito atenciosos e prestativos me deram toda uma assistência e indicaram meios de resolver meu caso,infelizmente nenhuma das soluções me pareceu totalmente adequada e me geraria mais transtornos e perda de um tempo que eu não tenho mas o atendimento que recebi da amazon foi extremamente respeitoso,eu sugiro que a amazon coloque essa informação sobre a qualidade,cor das paginas e etc (que pelo menos pra mim é crucial na hora de comprar um livro) na descrição dos recursos dos livros físicos ou que implemente uma opção de perguntar directamente a ela esses e outros detalhes antes de realizar a compra.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Livro bem escrito, porém te deixa triste e de baixíssimo astral. Sabe uma leitura que vc se sente mal depois? Pra quê ler um livro assim? Não indico, e não volto a ler livros desta autora.</t>
+          <t>Infelizmente o livreiro observou a entrega do endereço anterior qe foi entregue pelo correio a uma pessoa que não foi identificada. Assim não recebi o livro e não sei onde foi parar. Acho um descaso o que aconteceu. Infelizmente minha irmã não recebeu o livro desde o início de maio! Espero que amazon possa fazer algo!</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Escolhi esta classificação pois achei o livro muito fraco e esperava uma coisa completamente diferente pelas recomendações que recebi. É isso</t>
+          <t>Não vale a pena comprar pelo preço proposto na promoção (99 reais). Muito caro. Compre a versão física. Bem melhor.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Quando vi tantas avaliações corri para ler. Mas que livro chato. Tudo bem que tinha um aviso sobre cenas de sexo e linguagem chula. Mas deveria dizer que isso é em 90% da história sem deixar realmente um enredo bom acontecer. Sexo, sexo e sexo. Isso se resume a esse livro. A história ultrapassa o clichê. Na verdade nem tem história só sexo que parece ter sido retirado dos livros anteriores dela e colocado nesse mudando o nome dos personagens. Falta inovação. A escrita da autora é boa se não fosse mais do mesmo seria um livro bom.</t>
+          <t>Embora tenha gostado do livro "Não Faz Sentido", também do Felipe Neto, que nos faz ter uma visão de alguém que batalha dentro do YouTube, o livro "Felipe Neto. A Trajetória de Um dos Maiores Booktubers" é fraquíssimo, não acrescenta nada, deseduca crianças e adolescentes com brincadeiras do tipo "trepa, casa ou passa". Não há criatividade e sim futilidade. Uma pena, já que Felipe Neto é formador de opinião pública. Não recomendo.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Poxa comprei o livro em janeiro agora eles nao estão desponibilizando pra mim. Agora vou ter que comprar de novo sacanagem né gente😣</t>
+          <t>Infelizmente a história é fraca e a escrita deixa a desejar, não foi nada do que eu esperava. Não leria novamente!</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Apesar de ler várias avaliações positivas aqui, eu não gostei do livro, infelizmente após pesquisar sobre a vida do autor(o que devia ter feito antes)  vi que ele não passa de um "charlatão". Me chamou atenção pelo nome do livro mas não achei o conteúdo bom e sinceramente eu não gosto de ler autores que passam uma imagem mas vivem outra coisa. Me arrependi da compra e irei efetuar a troca. Quanto a Amazon foram ótimos! Indico o Milagre da manhã diário pra quem busca um novo estilo de vida.</t>
+          <t>Prefiro ler Roger Scruton, Von Mises, Flávio Gordon, porque de autores esquerdistas já estou até na tampa...</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sou muito influenciada digitalmente, então cedi ao hype da autora e comprei o livro. É bonitinho, as ilustrações são legais, mas não entendi os ânimos exacerbados sobre a obra. Poesia de Instagram, e não falo isso com entonação positiva. É rápida, leviana e descartável. Alguns poucos poemas se salvam e são um sopro de boa escrita no meio de diversas páginas desperdiçadas por poesias curtas de três linhas e que não dizem a que vieram.</t>
+          <t>Comprei a versão Kindle, e depois me confundi e comprei novamente a mesma versão do livro em formato Kindle. Pois a Amazon faturou os dois pedidos feitos no mesmo dia e permite compras Kindle duplicadas. Isto não pode continuar, principalmente se tratando de conteúdo digital !!!</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Já resolvi o problema com a Amazon, pelo que sou grata, porém tenho que comentá-lo. Já havia lido em algum comentário aqui que a pessoa recebeu um livro com páginas trocadas. E eu tive o mesmo problema. Da página 224 o livro pula para a 257, chagando na 288, repetem-se as páginas desde a 257! Poxa esse livro não me serve para nada! Além do fato de o papel pólen do miolo do livro é de baixa qualidade parecendo um papel de jornal, como aconteceu também com o segundo livro da mesma série que, inclusive, tinha até páginas bem apagadas no meio. Os demais livros da série que comprei são em papel de melhor qualidade disparados. Ainda, o papel de capa é fininho e a diagramação... letras bem pequenas, espaçamento entre linhas apertado. Isso tudo que faz desta versão "Comemorativa" nada mais do que uma versão econômica.</t>
+          <t>Não gostei... apenas alguns conceitos são validos. O livro de Produtividade do David Allen muito melhor, pois apresenta como fazer em etapas com exemplos.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Porque não estão vendendo a versão em e-book kindle do volume 1 e do restante da série? Qual a dificuldade?</t>
+          <t>Tive contato com "a obra" de Olavo de Carvalho quando eu tinha lá meus 15 anos. Por algumas semanas achei interessante pois tinha o propósito de desvelar verdades e conspirações. Passadas as semanas com meus olhos afiados para caçar comunistas, analisei seus indícios, busquei referências paralelas, e me dei conta de que ele é um lunático. Desde então, toda vez que vejo alguém dizer que gosta de Olavo de Carvalho, já encaro a pessoa como, no mínimo, uma analfabeta funcional. Recentemente um youtuber, filósofo formado, com as devidas técnicas de investigação filosófica, fez um vídeo de leitura e análise de lógica textual desse livro. Conclusão: Não há um parágrafo desse livro que não se utiliza de falácias. No vídeo também são elencados de maneira técnica os tipos de falácia utilizados. Link:https://youtu.be/EjQ9kVVuW0Y</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Péssimo Não acredito que ela escreveu esse livro. Não dá continuidade ao último livro. CHATO, não fala coisa com coisa. Decepção é pouco, estou irritada! É melhor fazer outro livro final!</t>
+          <t>O Livro é um resumo do canal Me Poupe! O Conteúdo entregue é para pessoas que estão iniciando no mundo dos investimentos, não contém informações técnicas.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nossa, que livro ruim. Muito mais muito prolixo e chato. No começo parece ser interessante mas depois torna-se uma coisa extremamente chata.</t>
+          <t>meu deus, essa escritora conseguiu estragar uma das histórias que tinha tudo pra ser um mega sucesso. que decepcão depois de tanta espera esse lixo!!!!! falta de respeito total com as leitoras .</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A razão nem encosta no pensamento confuso e contraditório. Não é um estudioso, é apenas um compilador que distorce ao bel prazer e engana aqueles que desconhecem outras obras. Ele aposta na ignorância dos seus leitores para tentar construir uma narrativa "fática". É superficial e conflituoso. Nada justifica um elogio. Não desperdice seu tempo.</t>
+          <t>Eu só recebi o primeiro volume. Os demais volumes não foram postados. Será que as obras completas se resumem a um só volume?</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>comprei livro e recebi uma amostra digital que me fez cancelar a compra. Haverá quem se identifique, não está na lista dos mais vendidos a toa. É bom saber do que se trata: reflexões de uma mulher sobre os próprios sentimentos; nada que extrapole para uma experiência mais universal ou mais profunda. As ideias giram todas em volta da frustração em não acertar com um homem, auto vitimizaçao e a eterna preocupação de que não estão lhe prestando a devida atenção ( fingi gozar e você nem percebeu, etecetera ) a autora parece ter sido estuprada, o tema do estupro volta sempre, assim como o problema em se relacionar com o pai. Autocentrada e superficial é um livro que só deve interessar quem se identifique com a cabeça dessa moça; como disse, não toca nenhuma corda que extrapole para o universal.</t>
+          <t>O bacana desse livro é a liberdade da Rita se escrever o que estava com vontade. Não espere tratados musicais nem nada do tipo, é mais sobre a vida dela, meio que não se importando com as opiniões. Quem espera algo relativo aos Mutantes vai se decepcionar, ela está amargurada e não esconde isso de ninguém. Achei superficial também.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>George Orwell tem um texto em que ele diz que o livro que ele mais lia na infância era As viagens de Gulliver. Hoje os livros infantis são apenas e exclusivamente para entreter sem que isso proporcione o desenvolvimento da criança.</t>
+          <t>Para quem tem um mínimo de conhecimento em finanças e investimentos, este livro não serve para nada. Simplista, ingênuo e infantil.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A imagem mostrada não corresponde ao livro referido. Esta era pra ser a edição em volume único da editora 34.</t>
+          <t>Confesso que pelas avaliações eu esperava mais,não que o livro não é bom. O problema é as semelhanças com os livros anteriores que eu li da autora,menina virgem,com homem mais velho,arrogante, prepotente,milionário,que usa as mulheres e não se envolve e como em um passa de mágica se apaixona. Eu em varios momentos vi o Leon(Príncipe da vingança se não me engano) senti também que as personalidades dos irmãos são parecidas com as dos príncipes Di Castellani,posso estar enganada pois foi só um prelúdio deles. O livro meio que romantiza o estupro,ao meu ver de forma velada,pois o autor do ato é o personagem principal e como tal precisa ser amado no final. Porém pra mim quando uma pessoa fala não é a a outra continua,caracteriza-se forçado, "a mais ela estava afim" a partir do momento que ela disse não é não e ela que arque com suas indecisões. Ele é egoísta, frio,manipulador,insensível,grosso,um babaca de marca maior e como um milagre ele se torna um cara incrível e maravilhoso e isso me incomoda muito e é meio oque aconteceu no outros livros que eu li dela. Se você gosta de histórias que o cara não presta e ela é muito boa e bacana,que não tem motivos nenhum pra se apaixonar mas mesmo assim se apaixona,essa é pra você. E ainda tem a tal da dívida,porque em momento nenhum ela reclamou de ser pagamento do pai,não precisou de nem de ameaça(tipo seu pai vai preso,salva seu pai)ela foi por livre e espontânea vontade,reclamado que isso era de outro século,mais foi.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>muito decepcionado com este box, ele é Pocket, folhas finas demais, tem cola estragando as capas, mais essa foi a primeira vez que não fico satisfeito com a amazon.</t>
+          <t>Muito fraco e passional. Visão distorcida de direita. Não leria se soubesse que era tão ruim. Deveria se chamar guia politicamente incorreto e tacanha...</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Nunca tive problemas com a Amazon, e agora depois de um tempo de efetuar a compra percebi que o livro não esta em bom estado, amassado e com o "plástico" descolando. Uma surpresa nada agradável :(</t>
+          <t>Tentei fazer o download desse ebook pela promoção /amamossp. Recebi a mensagem de que minha conta não era elegível para participar. No entanto, qual não foi minha surpresa ao ver que eu estava sendo cobrado por esse produto! Minha sorte foi que meu cartão de crédito já estava expirado.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Produto horrível, veio com várias páginas em branco.</t>
+          <t>Leitura para adolescentes, pobre em detalhes, aborda tema seríssimo, que exige orientação e assessoria especializada de psiquiatra especializado, o que foi pobremente abordado. O autor é excelente em descrição de emoções momentâneas e a leitura é facil, mas achei o livro depressivo. Bom para reflexão.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>O livro mostra somente os atos praticados pela Alemanha. O autor esquece de citar os atos praticados por Stálin, mostra uma Polônia como a paladina da bondade, não mencionando sobre o tratado de Versalhes e a sistemática expansão de território da Polônia em território Alemão.</t>
+          <t>Não gostei. A leitura não me empolgou. Achei a história rasa e um pouco forçada. Não ficou óbvio o final para mim, mas também não é impressionante, você lê e fica tipo: ah, ok. Talvez tenha criado muita expectativa.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>O texto do livro no celular é exibido em duas colunas, dificultando a leitura. Entrei em contato procurando solução e não obtive.</t>
+          <t>Se comparado os 7 livros do box, as suas paginas não são do mesmo tamanho. Isso incomoda bastante pois eles não encaixam corretamente na caixinha do box, deixando a desejar na estética.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Achei um livro muito superficial e enfadonho. O autor fica dando giros em volta de conceitos explicados muito por cima e a suposta "receita" nunca vem. Livros como A Força do Hábito são muito mais consistentes.</t>
+          <t>No dia que era para meu livro chegar recebo um email da Amazon avisando que eles haviam errado e o livro demoraria mais para chegar, quando ele chegou, fui abrir e dois dos exemplares vieram com a capa amaçada e com sugeria em todas as capas das 5 edições( provável que seja de cola ) além disso  a caixa que vem para guardar os exemplares  serem estava rasgada e  tive que jogar fora.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>O autor deveria ter colocado outro título: Como a esquerda se disfarça de regime democrático (e como não suportamos a alternância ds poder). É um livro ideológico e tendencioso.</t>
+          <t>É com muita tristeza que venho redigir essa resenha, mas infelizmente a Amazon pecou na venda desse box. A fotografia do box, aparece livros pretos com acabamento dourados, mas recebi livros preto com (um péssimo) acabamento prata. (O livro veio com defeito de fábrica, com cola grudada em 2 livros e capa descascando em 1.) Não foi especificada em momento algum da compra que as folhas eram brancas e sem orelha. Essa compra se justifica numa máxima popular: "O barato sai caro.".</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Não comprem, valor abusivo para e-book, amazon cobra o dobro do que é cobrado nos EUA, estamos financiando a sua crise.</t>
+          <t>Produto fraco! Livro com paginas brancas e letras pequenas! Esperava uma qualidade melhor........ Uma obra dessa merecia uma qualidade melhor</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A obra é péssima e não entendo porque é tão falada. Não consegui chegar ao fim. Trata-se de uma história de uma mulher deprimida, para quem tudo dá errado, alcóolica e até o ponto em que suportei ler, não acontece nada, a não ser recordações de desgraça, de uma vida sem sentido, de amor que não deu certo. Não tem interesse algum nem prende o leitor;</t>
+          <t>Obra caótica que descreve de forma monótona o desenrolar da II Grande Guerra. Descrições que se repetem dos ataques, contra-ataques, ações de criptoanálise de Bletchley Park quebrando chaves da Enigma e massacres de prisioneiros e crimes de guerra só da parte dos Alemães. A tradução para o Português tem vários termos não utilizados no Brasil, erros e frases sem sentido.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Livro muito decepcionante. Animado com o filme fui ler a trilogia. Achei essa segunda parte horrível. Arrastada. Como mais reflexões sobre o que fazer do que ação em si. Conflitos forçados de personagens. Muito infantil.</t>
+          <t>Ha tempos não lia um livro de suspense tão ruim! Achei fraco e com varias pontas soltas.A história comeca bem com uma jornalista medíocre que precisa voltar à sua cidade natal para fazer uma reportagens sobre uns crimes que andam acontecendo com criancas. Até ai tudo bem, mas começamos a perceber que a jornalista além de tudo é desequilibrada e se corta. hã? Por isso o nome do livro? Achei muito fraco! Terminei de ler pq li ouros livros da autora e para saber se  meu palpite do assassino estava correto.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sensacionalista, raso e cheio de distorções mal-intencionadas. Pelo menos deixa clara a proposta ao se anunciar, desde o título, como "incorreto".</t>
+          <t>Livro pessimo, dinheiro jogado fora, só mesmo os fãs obsecados que acham esse livro uma "obra prima" , enfim, não recomendo.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>recebi o livro ontem, ok ! entrega rápida. porém não recebi desconto na promoção marco10. só comprei por causa dessa promoção. o q faço agora ? r$12,90 do livro, mais r$7,90 de frete. paguei r$20,80. Gostaria de saber pq não ganhei desconto ?</t>
+          <t>Eu comprei e ganhei como vocês anunciaram, no entanto, não baixou o livro e estou muito chateada. gostaria que vocês resolvessem. grata</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Solicitei meu pagamento em 4 x e quando fui ver os detales da fatura do meu cartao para o proximo pagamento veio a surpresa desagradavel lançaram o valor total da compra ao inves da 1 parcela. Foi a primeira e a uktima vez que compro no site da Amazon decepcionada.</t>
+          <t>Não tem como não dar nenhuma estrela, então deixo essa para validar a avaliação. Pior livro que já li na vida, livro leviano, um regresso. Às vezes, durante a leitura, tive sensação que o autor queria o choque pelo choque, arrependimento de ter gasto um valor tão alto num livro que seequer serve para escora de porta. Não recomendo este livro.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Foi meu primeiro contato literário com o autor e achei o livro bastante superficial. Não acrescentou muita informação nova.</t>
+          <t>Comprei meu The kiss of decepcion aqui na Amazon e veio com duas páginas rasgadas além de uma página faltando. Quero saber se a empresa irá ao menos me enviar outra edição.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>O hype que envolve esse livro é ENORME então eu decidi tentar, mesmo sendo inspirado pelo conto da Bela e a Fera. Primeiro: a escrita. A autora tenta soar inteligente. E tenta TANTO que chega a ser ridículo. Faz uso de palavras difíceis só por isso e muitas vezes parece que nem sabe o que está escrevendo já que muitas vezes acaba sendo redundante nos adjetivos e substantivos que usa. Além disso, repete MUITAS vezes as mesmas coisas. Parece que queria atingir um número mínimo de páginas, tamanha a quantidade de vezes que faz isso. Segundo: a história em si. Fantasia é fantasia, mas a maior parte das interações entre os personagens é extremamente forçada e irreal. Honestamente, tudo vem fácil para a personagem que consegue todas as respostas que quer só perguntando. Terceiro e o pior de todos: Feyre. A personagem principal e NARRADORA é simplesmente insuportável. Se vitimiza o tempo todo, mas fica se auto afirmando como uma garota forte. Considerando o seu background e o fato dela ter 19 anos em uma realidade comparável à medieval, era de se esperar uma idade mental e uma maturidade que ela não chega nem perto de atingir. Várias pessoas argumentam que o livro eé uma pré-sequência para a história em si que começa no segundo livro, mas acho ridículo esse conceito de que preciso me torturar por 400 paginas para comecar a historia de fato.</t>
+          <t>Olavo é um fanático religioso que encontrou público farto para ler sua pseudo-obra. Uma destilação de senso comum com mesclas de ódio, preconceito e discurso autoritário. Triste.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Apesar da narrativa prender o leitor, os argumentos não falhos e tendenciosos. Para se ler atento e não se deixar levar pela propaganda. Livro coloca o ser humano como um perfeito idiota e o autor como o suprassumo da inteligencia,uma vez que narra a história da humanidade como a história de um bando de animais que sucessivamente fizeram escolhas erradas a ermo e sem proposito nenhum. Se por uma lado a evolução dos animais é essencialmente biologica, Harari deixa de considerar que a humana é essencialmente histórica.</t>
+          <t>O titulo não veio centralizado, no dorso. Não gostei!</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>é um livro bem fraco, não acrescenta nada, só fala o óbvio de um ponto de vista fora da realidade.</t>
+          <t>Não gostei do livro, é quase um pastor falando. Tinha muitas expectativas sobre ele, pois pensei que fosse semelhante ao livro O Poder do Hábito.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>No dia que era para meu livro chegar recebo um email da Amazon avisando que eles haviam errado e o livro demoraria mais para chegar, quando ele chegou, fui abrir e dois dos exemplares vieram com a capa amaçada e com sugeria em todas as capas das 5 edições( provável que seja de cola ) além disso  a caixa que vem para guardar os exemplares  serem estava rasgada e  tive que jogar fora.</t>
+          <t>Ao longo do livro me senti extremamente mal ao ler as descrições dos experimentos feitos com camundongos e macacos. Implantes cerebrais, retirada de recompensa para estimular comportamento hostil, eletro-choques,... Um show de horrores tratado ao longo do livro como algo natural. Não me agradou saber que existem por aí laboratórios implantando tomadas em cabeça de ratos para descobrirem seus hábitos. Além disso, o autor é extremamente prolixo. Para cada caso usado para exemplificar seu ponto de vista ele discorre longamente sobre a história de vida da personagem em estudo. São muitos detalhes irrelevantes ao propósito do livro. Li o livro como numa leitura dinâmica, pulando todas as partes de enrolação. Sinceramente, acho que um artigo em um blog na internet já poderia conter toda a mensagem deste livro.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A literatura em si não há o que contestar: um épico!  Porém a propaganda é enganosa quando cita " obra ilustrada". Na verdade o que tem é um pequeno encarte, com algumas ilustrações, completamente fora do contexto dos cantos, o que torna a leitura truncada se você quer acompanhar o texto junto a ilustração.  Neste sentido foi muito frustante adquirir a Divina Comédia sem TODAS as ilustrações de Gustave Dore.</t>
+          <t>Eu comprei o livro para dar de presente, e escolhi  site da amazon.com pois apresenta o diferencial em se poder mandar o presente para um endereço e a nota fiscal para outro endereço, no entanto mandaram os dois para o endereço do presente, logo a pessoa ficou sabendo do valor, formas de pagamento, dentre outras coisas. Peço para que analisem isso, para que não ocorra novamente.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Bem, eu nem sei por onde começar. A história é a representação do machismo mais repugnante que se possa imaginar. Arthur é um ESCROTO! Eu jamais nunca nem com uma arma apontada pra minha cabeça ficaria com um homem nojento desses. Fiquei chocada com a forma degradante como a figura feminina é retratada: sempre interesseira e fútil a não ser que seja pura, virgem e pudica como a protagonista. A autora também presta uma gama de desserviços sendo extremamente preconceituosa: pílula do dia seguinte NÃO É ABORTO! Uma estudante universitária jamais teria um pensamento tão estúpido; a forma totalmente desrespeitosa como tratou o tema do estrupo; e a pessoa gostar de BDSM não diz nada sobre o caráter dela! Matheus não deixa de ser uma boa pessoa pq gosta de chicotinho de sete pontas desde que haja CONCENTIMENTO! Coisa que o Sr. Redenção nunca solicitou a Maiana! Há outras questões que eu achei igualmente repugnantes mas essas são as que quase me fizeram vomitar!</t>
+          <t>A coleção é maravilhosa, Sir Arthur Conan Doyle um mestre, mas o produto em si deixa a desejar, a caixa onde vem o produto se rasga ou descola fácil, pedi a substituição do produto é a Amazon disse que demoraria 1 mês para enviar o danificado e só aí iria mandar um novo, ridículo, como se eu tivesse culpa do envio descuidado deles.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>mais do mesmo</t>
+          <t>o livro apresenta ideias obvias , como : trate bem seus funcionarios , trate as pessoas como deseja ser tratado ,etc. Isso é contado por meio de personagens Estereótipo , ( o ranzinza , a certinha , etc.)  é tão chato e obvio que suas 140 paginas poderiam ser compiladas em 20 , apresentando-as de forma detalhada . Li o livro em 3 semanas , sendo que já li livros de 500 paginas em 1 semana . posso não ter gostado do livro por ter sido obrigado a ler para um trabalho da escola , mas essa é a minha opinião sobre ele.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Tenho muitos livros sobre a Segunda Guerra mundial já que sou muito interessado na história das guerras. Mas este livro me decepcionou, ele é muito parcial, pois tenta mostrar o Nazismo como o império do mal. Sobre as barbaridades cometidas por Stalin, nenhuma palavra, e quando fala é para dizer que a culpa é do Hitler. Transforma a Polônia numa coitadinha, não explica que a Polônia no Tratado de Versailhes tomou território alemão e ainda continuou após a guerra reivindicando mais territórios da Alemanha. Não cita também que a França exigia reparações de guerra que a Alemanha não podia pagar. Não fala que os Estados Unidos enviaram dinheiro para a Alemanha pagar as reparações, que Woodrow Wilson, o presidente americano, achava excessivas,isso perdurou até 1929 quando houve a Grande queda da Bolsa de valores. Com esse quadro, se esquecem de dizer que Hitler foi eleito Chanceler da Alemanha com maioria absoluta dos votos. E pior o livro não esclarece direito que a Polônia foi dividida entre Hitler e Stalin, pois a Hitler só interessava recuperar os territórios roubados da Alemanha. Digo que este livro é o pior livro sobre a Segunda Guerra que eu li, se bem que não li ele todo, pois não quis passar nervoso e indignação. Não recomendo.</t>
+          <t>Esperava um livro com técnicas, mas não há nada de tecnicas. O autor compara o leitor varias vezes mostrando que quem está lendo esse livro não é um bom leitor. Joguei dinheiro fora. Péssimo livro por que não se alcança o objetivo proposto.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Muito fraco e previsível. A pista através do qual o assassino é descoberto é patética, só um idiota manteria aquela prova junto a si sem a menor necessidade. Muito fraco mesmo. A protagonista ser tão palerma e irritante talvez se justificasse se a trama fosse elaborada e instigante, mas isso está longe de acontecer.</t>
+          <t>O livro é muito chato, enrola muito. Apesar de conter algumas dicas que podem funcionar, o livro caberia perfeitamente em 10% das suas páginas.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Extremamente superficial o livro é carregado de sofismas e platitudes. Análises descontextualizadas em uma linguagem pobre beirando a desonestidade intelectual.</t>
+          <t>Achei muito merchandising e pouco conteúdo prático. Os conteúdos ficam em um site e não no livro. Sinto que desperdicei meu dinheiro com o livro já que no site o conteúdo é gratuito.  Além disso, tem muitas histórias pessoais e relatos sobre como o milagre É incrível e pouco sobre o milagre.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Não recomendo a ninguém! Sem conteúdo, fútil e pobre de informações. Mais vale ler a revista Caras que você estará perdendo menos tempo.</t>
+          <t>Muito chato, cansativo, perdi meu tempo.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Leitura rápida, com algumas dicas para expandirmos nossa percepção sobre nossas ideias ou ações. Acredito que no final tenha agregado algo, mesmo que seja mínimo.</t>
+          <t>o texto inteirinho são só e-mails, talvez agrade pessoas jovens. A leitura é cansativa, extremamente superficial. O preço é alto e não vale a pena.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>O livro é apenas uma motivação, muito superficial. Quem quer melhorar a velocidade de leitura vai precisar escolher outro livro, esse não servirá.</t>
+          <t>Tentei mas ,não deu. Não gosto de abandonar leitura, mas ,esse não desceu. O Enredo é feito só de palavrão e sexo. A mocinha é tão grosseira e boca suja que eu me senti constrangida e envergonhada por ela .Queria ter o poder de entrar no livro rs e dar umas aulas de comportamento e educação para a coitada. Obs. Capa engana muito. Bonita e atrativa, mas ,só serve para camuflar o manual de palavrões. 😢😢</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Decepção. Quando to ansioso abri a caixa e vi a qualidade das folhas. Péssimo !! As folhas são muito transparentes, a gente lê e vê as letras do verso. TRISTE!! Ai a capa é linda ... fui tirar uma foto pra postar na rede ... tem uma mancha enorme de cola no terceiro livro... --' Nem pra uma foto serviu.</t>
+          <t>Não recomendo a ninguém! Sem conteúdo, fútil e pobre de informações. Mais vale ler a revista Caras que você estará perdendo menos tempo.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Um pouco desapontada. Acho q estava com mta expectativa</t>
+          <t>Quando vi o lançamento pensei que finalmente poderia me livrar dos ebook distribuídos pela net de graça, quando vi o preço mudei de ideia, espero que ninguém compre, queremos livros digitais e democráticos com preços acessíveis, não somos trampolim para a riqueza, um livro digital não utiliza tinta ou papel, não precisa de distribuição física e dispensa muita mão de obra, tudo isso deveria contribuir para que o valor fosse mais acessível.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>O livro é de auto-ajuda e deveria ser vendido como tal!!! Não gostei! Alem de ser muito, mas muito repetitivo!!!!!!!!!!!</t>
+          <t>Pedi o livro baseado na promoção q era de graça. Não autorizo está compra. Ajustem o site de vcs para evitar tais desconfortos. Dória tem razão... e vcs não cumpriram com a palavra. Não aceito pagar R$21,00 por este livro, pois estava informando q era gratuito</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Pior livro que já li em toda a minha vida. Enrola MUITO. Fala o livro todo da tal da "comunidade miracle morning". Dava raiva antes de virar a página já, porque você sabe que na próxima ele vai dizer "entre na comunidade miraclemorning. com e veja quantas pessoas se beneficiam disso". affff Chato, chato, chato. Nem sequer 1 base científica...é tudo no "achismo". Quando estava no meio tive curiosidade de ver quais eram as referencias bibliográficas e, adivinha?? Nao tem nenhuma! Não gastem seu dinheiro. Tem muitos livros bons por aí...este aqui não vale nem quando está em promoção! Me arrependo muito de ter gasto 17,90 nele. =/</t>
+          <t>Nada de novo neste livrinho, peguei pois veio grátis com um eletrônico. O básico do básico acerca da 2ª Guerra Mundial.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Esse livro assim como essa coleção tem erros grotescos!! O anacronismo deste livro chega ser absurdo em algumas partes! Me desculpem mas só quem nunca leu de fato livros sérios de historia cai nos erros que esse livro tem.  Peço para que os leitores nãos e enganem com o bom humor do livro, leiam livros sérios de historia de historiadores renomados que  terão informações ricas sobre a história.</t>
+          <t>O livro veio meio amassado. Um pouco caro para uma edição de bolso</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Um livro para ler e jogar fora e sem comentar com ninguém. Altamente não recomendável. O conteúdo do livro é lixo puro.</t>
+          <t>O livro é uma coletânea de obviedades e o Cortella não consegue se aprofundar nos temas que propõe em cada capítulo, deixando o leitor esperando por alguma conclusão que nunca chega ou mesmo por algum insight que faça o livro valer a pena. O livro é também mal escrito: parágrafos curtos e um uso abusivo do ponto final, tornam a leitura travada e dificultam estabelecer uma coesão entre as frases. Ganhei de presente e não recomendo.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>o livro é bom, mas me confundi bastante, as palavras estranhas, presentes em todo o livro atrapalharam a compreensão de todo o conteúdo.</t>
+          <t>Que sistema horrível de vocês. EU NÃO COMPREI NADA. EU SÓ CLIQUE PRA VER MELHOR. EU queria esses livros FÍSICOS E. Não ebook. Eu só queria ver. Cancele essa comprar. Obrigada Stela Maris.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Tive contato com "a obra" de Olavo de Carvalho quando eu tinha lá meus 15 anos. Por algumas semanas achei interessante pois tinha o propósito de desvelar verdades e conspirações. Passadas as semanas com meus olhos afiados para caçar comunistas, analisei seus indícios, busquei referências paralelas, e me dei conta de que ele é um lunático. Desde então, toda vez que vejo alguém dizer que gosta de Olavo de Carvalho, já encaro a pessoa como, no mínimo, uma analfabeta funcional. Recentemente um youtuber, filósofo formado, com as devidas técnicas de investigação filosófica, fez um vídeo de leitura e análise de lógica textual desse livro. Conclusão: Não há um parágrafo desse livro que não se utiliza de falácias. No vídeo também são elencados de maneira técnica os tipos de falácia utilizados. Link:https://youtu.be/EjQ9kVVuW0Y</t>
+          <t>Realmente triste um sucesso desses ser vendido numa versão digital, que teve custo mínimo de produção e tem custo 0 de venda, num preço 2x maior que o produto físico, que teve custos de produção e distribuição infinitamente maiores do que o digital... Simplesmente lamentável... Amazon perdeu todo o respeito que eu tinha pela empresa.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>O diário de Anne Frank trata-se de uma farsa, uma obra de ficção, quem pretende ler o livro tem que ter isso em mente. "Depois que os falsificadores confessadamente admitiram que o famigerado "diário" nada mais é do que uma monumental impostura, alterada, deturpada e manipulada para transformar-se num dos grandes "best-sellers" mundiais, cabe aos nossos prefeitos, vereadores, deputados estaduais, federais e todos os responsáveis pelas áreas da educação, partirem para a ação, fazendo a única coisa cabível diante de tanta falsidade e infâmia: retirar o nome desta impostura da infinidade de praças, ruas, largos, teatros, colégios e outras instituições espalhadas por todo o país e pelo mundo. Há mais de uma década o catedrático francês, professor da Universidade de Lyon, Robert Faurisson, dissecou e desmascarou, científica e impiedosamente a impostura do chamado "diário" de Anne Frank. Usando a frieza da técnica investigativa, inerente a todo autêntico pesquisador histórico, Faurisson provou, através de infindáveis evidências, a manipulação na elaboração dos famosos "diários", além de desnudar o grande e fabulosamente rendoso negócio em que se transformou esta falsificação histórica. Um exemplo: só em direitos autorais, o pai da infeliz menina ( que morreu de tifo, enquanto seu -- saudável e milionário -- pai foi hospitalizado em Auschwitz e sobreviveu) recebe somas em todas as escolas! A estória desta publicação está repleta de brigas e demandas, entre o pai, o tio, os editores, o compilador, o "escritor fantasma", etc, todos de olho no filão interminável que representa a posse de seus direitos autorais." (...)</t>
+          <t>A leitura é muito prejudicada no Kindle. O texto não se alinha à página, ficando apenas na metade da tela. Não dá para ler, péssimo!</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>surreal este preço... depois reclamam que ebook não vende no Brasil. Ridículo! Ainda mais quando se compara com o preço dos EUA. Sem chance...</t>
+          <t>Fiquei muito curiosa para ler o livro depois de ver a sinopse. No entanto, a história é frustrante, fiquei todo o tempo de leitura esperando acontecer alguma coisa.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Conteúdo superficial onde se propõe nas dicas básicas indicar um caminho sem receitas. Bom para iniciantes sem nenhuma rota principal</t>
+          <t>Esse livro do Cortella é muito previsível e superficial, chegando quase a ser uma cópia de outras publicações clássicas nessa área da análise comportamental. Os hábitos que Cortella cita ao longo do livro são comportamentos que já são citados pela nossa avó. Outro  problema do livro é o fato de o autor fazer muitas conexões com pensamentos e filosofias de cunho socialista e esquerdista, acabando por ser extremamente parcial.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A tradução dessa edição não chega aos pés da já disponível pela Companhia das Letras / Penguim de autoria de Frederico Lourenço. Esta sim uma grande tradução dos grandes clássicos de Homero.</t>
+          <t>Muito erros grosseiros de tradução. O material não foi adaptado corretamento ao formato Kindle. Dá impressão que escanearam e jogar o pdf "nas coxas" ! Ficou horrível. As notas de rodapé aparecem no meio do texto ! Faltou uma revisão bem feita de especialistas em Dostoiévski e cultura russa. Castigaram o trecho do grande inquisidor com tradução mal feita e notas mal colocadas.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Infelizmente a caixa veio rasgada. A Amazon prontamente trocou o produto, mas veio rasgada novamente. Na segunda tentativa de troca a Amazon entendeu bem o problema mas preferiu devolver o valor pago. Não era a solução que eu gostaria. Minha intenção era apenas substituir novamente. Acabei ficando com o produto avariado mesmo. Entendo o motivo da opção pelo reembolso, a recorrência do problema e os custos envolvidos, mas no fim não era a melhor solução para mim.</t>
+          <t>Fiz a compra e a encomenda chegou bem rápido, entretanto, ao abrir o pacote, uma surpresa. Veio apenas 1 livro e a compra foi de 2 exemplares. Inclusive a nota fiscal diz que são duas unidades e o valor cobrado é por dois livros. Costumo comprar da Amazon e sempre fui muito bem atendida. Espero que o mau atendido se resolva rapidamente.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Obra prima da idiotice nacional.</t>
+          <t>Estou arrependido por ter comprado esse livro no formato digital. Gostaria de trocá-lo pelo formato em papel, pois várias partes importantes do livro não são legíveis, como o índice, as referências, etc</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Fique atento na compra. Ainda está com problema no download, conforme já reportado há um mês por um outro usuário.</t>
+          <t>Livro bastante repetitivo, onde o autor se promove o tempo todo. Não acrescenta muito, acredito que é possível aprender o conteúdo do livro através do site do autor, em menos de 1 hora, evitando o desperdício de tempo na leitura do livro. Não vale o preço.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Num mosteiro italiano em 1300, ocorreram algumas mortes misteriosas e um ex inquisidor começa a investigar as ocorrências. Há muito mistério envolvendo a biblioteca e suas obras, cujo acesso é feito apenas por um monge bibliotecário. Quando o investigador acessa a biblioteca, descobre que ela é feita na forma de um labirinto e com diversos artifícios para complicar seu uso, como espelhos que deformam a imagem, incensos que geram alucinações e passagens de vento que geram ruídos macabros. O livro tem longas citações em latim, que não são traduzidas e, além disto, há muitas digressões filosóficas que não agregam interesse e nem valor a estória. As relações entre os monges e o modo com o mistério é apresentado não prendem a atenção do leitor. Entediante.</t>
+          <t>Livro mal escrito, mal traduzido, enredo confuso e lento, muitos personagens e apelidos. Fiquei bem decepcionada.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Por ser versão pocket se espera uma qualidade inferior, mas mesmo assim decepcionou. As folhas são brancas e transparentes, da para ver o verso. Por ser pequeno e com grande número de páginas, a leitura se torna desconfortável, não tem como segurar o livro direito. Mas claro pra quem quer economizar e é persistente, a leitura é possível.</t>
+          <t>A estoria de amor entre duas pessoas psicologicamente pertubadas e sexualmente descompensadas. O unico ponto positivo e que eles conseguem fazer sexo sem a dependencia de brinquedos esquisitos. Porem, o excesso de disposicao dos personagens chega a irritar, sem contar na inseguranca da protagonista. Nao recomendo.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>O texto fluído e, em alguns, uma boa argumentação não esconde infelizmente a adesão a um pensamento conservador e preconceituoso, principalmente quando o autor aborda a religião. Para justificar seu catolicismo radical, não usa premissas, só conclusões.</t>
+          <t>Esse é o típico livro que te passa uma cartilha caso você deseje jogar o jogo do mundo dos negócios. Um teatro, onde vc finge ser o que não é para ter o mínimo de empecilhos possíveis.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Estou louca para ler este livro, mas enquanto não arrumarem a formatação não o farei. Por que ainda não o fizeram se todos estão pedindo a mesma coisa?</t>
+          <t>Se soubesse não teria comprado. É bom pra aprender. O cara foi editor da revista Superinteressante! A revistinha mais cientificamente sensacionalista q existe. E ainda escreveu na Veja. Vi historiadores brasileiros, respeitados, descendo a lenha nesse livro. Amazon coloca na prateleira de Ficção Científica.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>infelizmente veio com a caixa toda detonada, o box veio amassado e com uma das laterais rasgada quase saindo, os livros vieram com um pouco de cola na parte superior e ao puxar rasgaram o box e para piorar o quinto livro veio com umas oito páginas em branco. Pior experiencia.</t>
+          <t>A história é até ok, mas o autor se perde em defender sua visão política pessoal deixando o livro chato.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Não gostei, a capa diz mais do que o conteúdo do livro.</t>
+          <t>mais do mesmo</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Tenho um muito semelhante, pelas fotos creio que o material dos livros sejam os mesmos. Esses livros são só para estante, mas logo essa capa irá se atrofiar e as páginas logo se sujarão, mesmo eu tendo todo cuidado ao manusear os livros. Então é certo de que, apesar de ser um livro pocket que seu objetiva seria de ser mais fácil e prático o manuseio, o material do livro não compensa p esses quesitos</t>
+          <t>Escolhi o livro por acreditar no tema e indicação de uma amiga que segue o que ele propõe. Minha crítica maior é ao modo ostensivamente egoísta que ele foi escrito. Se é um livro de auto-ajuda, ok, já li muitos bons, sensíveis. Mas tudo leva a crer que se você quer mudar de vida, aproveitar melhor seu tempo, seria para ser vitorioso, rico, poderosamente um profissional tal...eu não me pauto pela minha profissão somente e meu interesse genuíno na técnica seria para ajudar a equilibrar todas tarefas que gostaria de fazer, unindo bem-estar emocional/físico e a sensação de dever cumprido. Portanto, achei agressivo o foco no sucesso - algo que pode ser subliminar - e ao mesmo tempo o excesso de citações de livros de possíveis amigos do autor, me dando a impressão de uma panelinha parecida com o que se vê atualmente na internet, onde todo mundo é o "bonzão" em alguma coisa, baixe meu e-book que eu vou te mostrar passo-a-passo...Ainda devo reler o livro e anotar algumas coisas, mas a sensação é que o caminho que explorarei sozinho vale mais, haja visto que todo o livro volta ele pra um cadastro em um site, certamente algo que eu não pedi e nem quis quando adquiri o livro. Talvez eu tenha vindo com muita expectativa, mas não creio.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Não é o primeiro livro da Record que oxida em menos de três meses. E olha que meus livros são bem guardados e conservados. O papel da maioria das edições da Record é desse jeito, fica amarelo em pouco tempo. É triste.</t>
+          <t>Eu nao ia comprar essa edição pelo fato de a maioria dos comentarios serem negativos, mas la fui eu me aventurar e comprei, chegou agora o box aqui em minha casa, recém chegou, com página rasgadas!!! o livro em sí veio todo sujo e arranhado principalmente as lombadas mas isso tudo bem eu ia ficar, eai dois dos livros com PAGINAS RASGADAS!!!! QUE ISSO AMAZON VC TA FAZENDO UM JOGO COMIGO?? o livro 1 e o 4 estao com as últimas páginas descoladas e rasgadas isso é um absurdo, ja pedi meu reembolso,e aconselho a vcs que estao em duvidas de nao comprarem, olhem as fotos e tirem suas próprias conclusões!</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>O fundo da história é pra se pensar. Mas é muito absurda e sei lá, não me prendeu.</t>
+          <t>achei o livro muito pesado, em razão da traição, em todos os outros livros de Nana o personagem principal não traí a amada. Pra mim a traição acabou com a história de amor.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Livro bastante repetitivo, onde o autor se promove o tempo todo. Não acrescenta muito, acredito que é possível aprender o conteúdo do livro através do site do autor, em menos de 1 hora, evitando o desperdício de tempo na leitura do livro. Não vale o preço.Não recebir este kit dos livros dos 50 tons de cinza por favor queria saber o que ouve queria um retorno</t>
+          <t>Este livro é para ser lido como se estivesse lendo uma revista adolescente, nada mais. O autor carece de memória para manter seus argumentos dentro de uma mesma página. Perde-se constantemente e torna a leitura chata e irritante. Um exemplo simples, sendo que acabei de ler a parte de Santos Dumont: na página 249, ao argumentar a falta de documentos por parte dos irmãos Wright, diz que eles evitavam demonstrações, pois: "Não somos artistas de circo"; porém 2 parágrafos depois, para comprovar que realmente voaram, "os irmãos Wright fizeram uma demonstração para mais de sessenta pessoas". Pô! Escolhe um argumento! O autor não consegue ver que ambos inventaram o avião, tanto os irmãos Wright quanto Santos Dumont, cada um a sua maneira, sem copiar um do outro. Fica difícil manter o interesse no livro se souber somar dois com dois</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>O autor parece mais um missionário do que escritor. Usa de depoimentos para convencer aos leitores que seu método da certo... usa de rasos argumentos, nenhuma prova científica como referência a estudos etc. Péssimo autor. Já tentei ler outro livro dele e acontece a mesma coisa. Infelizmente gastei dinheiro e tempo com essa leitura nada produtiva.</t>
+          <t>Livro bem escrito, porém te deixa triste e de baixíssimo astral. Sabe uma leitura que vc se sente mal depois? Pra quê ler um livro assim? Não indico, e não volto a ler livros desta autora.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>GREY: CINQUENTAS TONS E. L. JAMES Nao  recomendo  livro chato repete, repete e  repete. Ruim Nao compre  sem avaliação. Rr</t>
+          <t>Odiei ! A história é contava atraves das trocas de emails e cartas. Pela primeira vez achei o filme mais legal</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Infelizmente o livreiro observou a entrega do endereço anterior qe foi entregue pelo correio a uma pessoa que não foi identificada. Assim não recebi o livro e não sei onde foi parar. Acho um descaso o que aconteceu. Infelizmente minha irmã não recebeu o livro desde o início de maio! Espero que amazon possa fazer algo!</t>
+          <t>Então... estava muito interessado nesta edição, mas aí, ao olhar mais atenção, percebi que as páginas de dentro são impressas em papel 'couchette'. Quem teve essa 'brilhante' idéia? Pois para mim, acabou o interesse. Blah</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Prezados, Acredito que houve um erro, pois descontaram o valor deste livro no meu cartão de crédito. Quando escolhi este livro foi no dia 30 de março no momento de uma campanha da empresa de doação de Ebooks e este livro era uns dos livros disponíveis gratuitamente. Espero uma solução rápida, pois não gostaria de ser lesado.</t>
+          <t>O Ebook esta bem mais caro que o livro físico. Muito sem noção, não vou comprar não. Esperar até chegar nos R$20 e olhe lá.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Comprei dois livros e os dois vieram super amassados, um na parte de baixo, e  outro na parte de cima, não só a capa, as folhas também.</t>
+          <t>Bom quanto a Qualidade dos livros estão em perfeito estado, porém a caixa dos 5 livros veio danificada, com um rasgo como se alguém a tivesse tentado abrir. Como veio dentro de uma caixa de papelão a recepcionista não tinha como observar este defeito.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A formatação desse ebook atrapalha muito a leitura e não vale a pena ter essa versão do Kindle. Comprei agora um Kindle e esse ebook e estou arrependido.</t>
+          <t>Isto. Não. É. Poesia. Muito. Menos. Poema. Há zero páginas de poemas nesse livro. Existem 208 páginas de trechos do que parece ser o diário de uma menina de 13 anos, com quebras de linha aleatória, rabiscos legais e capítulos ocasionais com títulos temáticos, para que você saiba quais emoções a autora está tentando extrair de você. É vergonhosamente derivativo e não emprega quase nenhum aparato poético. Os fragmentos de sentença são usados porque é o que se espera de um poema, mas a autora não parece entender que eles servem a um propósito e devem contribuir para o significado maior do poema. As alusões e metáforas são deslocadas e incongruentes, porém, estão sendo apresentadas ao leitor como arte. Não há nada de novo, interessante, criativo ou poético nesse livro, é tudo muito clichê - e não no sentido positivo da palavra. Não sei por quê as pessoas enlouqueceram com esse livro e dizem que é lindo e é o seu livro favorito, porque, honestamente, é bastante claro: a maior parte dele é apenas períodos básicos com quebras de linha aleatórias, e que ficariam muito melhor se fossem linha corrida. Não são muito líricos e, literalmente, são como ler uma frase normal. Eu esperava adorar todas as páginas, mas eu só marquei 7. Para as pessoas que nunca leram poesia e nem poema fora da escola, esse parece ser um ótimo livro. Os conceitos, especialmente quando se aproximaram dos aspectos feministas, simplesmente não me impressionaram. Um texto inteiro sobre "você não precisa de um homem" foi apenas uma repetição das coisas que eu tenho ouvido há anos. Foi uma leitura rápida, mas frustrante, o que me deixa triste porque é uma crítica tão má para uma autora que tenta colocar bastante emoção em seu trabalho. Resumindo em duas palavras: superestimado e superficial.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A edição é maravilhosa, o preço bom, contudo, o livro veio rasgado no canto superior direito da lombada. É a primeira vez que isso ocorre...a Amazon costuma ser excelente....é preciso dizer.</t>
+          <t>Eu comprei pela promoção que foi feita para a cidade de São Paulo, porém não sei como acessar o produto, não tem explicação alguma.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Nao terminei o livro, mas até os 40% do mesmo há muito discurso sobre temas um tanto quanto óbvios ou especulativos. Por enquanto me decepcionei.</t>
+          <t>Particularmente não sou de livro de auto ajuda, porém de tanto ouvir falar nesse livro acabei comprando (ainda bem que foi numa promoção). O livro não tem nada de diferente, achei uma leitura chata e sempre o mais do mesmo. Tudo que sabemos mas que não praticamos na maioria das vezes. Dei duas estrelas pela capa, achei a melhor parte do livro.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Esse livro representa o que eu mais odeio na industria literária, uma "obra" mal feita, com péssima escrita e feita puramente para vender.</t>
+          <t>Fiquei indignado ao saber que a edição digital está diferente da versão impressa, conforme informado pelo leitor Ricardo. Como consequência, devolvi o e-book com a solicitação da devolução do quantia paga. LAMENTÁVEL.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Assim como outros livros do autor, um livro leve e engraçado sobre adolescentes. Diálogos perspicazes e personagens acima da média. Gosto muito do autor, apesar de seus livros terem sempre o mesmo tom e personagens com várias características em comum.</t>
+          <t>Não gostei e não recomendoi! Muito tedioso e cansativo. É simplesmente um relato das operações das batalhas, retratando sem emoção as atrocidades da guerra.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>O livro tem um tamanho entre o tamanho padrão e um livro de bolso. Não há esta informação no site. Não achei correto, gosto de livros tamanho padrão devido ao tamanho da letra.</t>
+          <t>a formatação no Kindle é ridícula, problema antigo que não foi resolvido. Até quando Amazon? Seus clientes esperam um produto melhor</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>É uma vergonha não se ter uma versão em português decente para ler no Kindle. Vide informação de problemas relatados! Tantos anos do lançamento e não temos uma versão confiável!</t>
+          <t>Primeira vez que uso esta página e a decepção tá sendo total. Duplicaram meu pedido 😤 e tentei cancelar um deles e adivinhem só? Impossível! Ainda que eles afirmam que temos a possibilidade de remover intens ou cancelar o pedido inteiro, essa opção não existe. Ahhh! e o número de atenção ao cliente oferecido na página da amazon? Simplesmente não existe. Decepção total! Primeira e última vez que uso esta página pra comprar. Não recomendo pra ninguém!</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Não recomendo. Honestamente não recomendo. O conteúdo é super interessante, mas a diagramação não foi feita. A história se perde, inicia uma história no meio da outra e "do nada" a história retorna. A Amazon deveria excluir livros assim. Editora, não existe diagramação para kindle? Sério que vendem dessa forma? Foi muito triste.</t>
+          <t>Podem me explicar do porquê deste preço pra versão digital? Quase o mesmo preço da versão física e mais cara que a versão pocket. Qual a jutificativa pra tal abuso? Transporte não é, nem o papinho de manutenção de software (pq isso vc paga uma vez por ano), é só uma cópia do que já tem impresso. #wtf</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Não estou conseguindo ver o conteúdo do livro. Como faço pra lê-lo?! Tenho iPhone. Gostaria de ler no celular mesmo!</t>
+          <t>O conteúdo é muito bom, uma forma diferente de (re)conhecer fatos e personagens históricos, mas o que deveria ser uma experiência agradável e divertida torna-se extremamente penosa em razão da formatação da obra. Algumas páginas ficam com fundo preto (há princípio achei que fosse algum defeito do meu Kindle, mas após ler outras postagens verifiquei que tratava-se de problema do e-book) o conteúdo é truncado, havendo constantes trocas de páginas, e as notas que na versão impressa deveriam enriquecer o texto, no e-book tornam a compreensão penosa e confusa. Estou extremamente decepcionado com o resultado e mais ainda com a Amazon por, após tantas críticas ao material, manter o produto à venda em sua loja sem as devidas e necessárias correções. Nada mais justo seria se a empresa interrompesse a comercialização do livro até efetuar as correções. Desta forma, começo a me arrepender de ter adquirido o Kindle, pois não vejo muito futuro para a Amazon no Brasil, seguindo como esta.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Graças a Deus peguei o livro emprestado,por que...putz que final sem graça interminado,esperamos um tempão cheios de expectativa pelo livro e ele é muito ruim com várias questões não finalizadas como Trey e cary o livro de corinne e o epílogo não foi um epilogo, a autora deu show de sensualidade nos outros livros e nesse ficou super morno,decepção é a palavra e agora olhando as resenhas fico aliviada por não ter comprado o e-book que está faltando diálogos,estava esperando esse final achando que poderia equiparar a autora a E l James ou até mesmo achei que seria melhor que a Série de Grey mas esse final a deixou para trás...se  a HBO iria fazer a série depois desse final concerteza não vai mais re se for fazer espero que mudem drasticamente o final</t>
+          <t>Ilegível, mal formatada, comparem com a versão impressa da Editora 34 e chorem... Infelizmente nenhuma tradução decente está disponível em formato digital. É uma lástima, uma pena que a Editora 34 não nos ajuda.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Um tanto ruim e sem inaginacao como a trilogia que gerou esse livro. Nao entendo como essa trilogia gerou ate um filme( que nao assisti, claro, uma vez que li os livros</t>
+          <t>Amei!  Devorei esses livros em 15 dias, gostei mais do tons escuros e de liberdade. Que venha agora o Grey</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Livro sem nenhuma coisa de diferente. Autor bastante jovem e do "auto de sua experiência "aos 30 anos quer descobrir o segredo da vida. Totalmente dispensável o livro</t>
+          <t>Eu esperava mais do livro ... Que final chato gente cadê os filhos do casal decepciona com a autora  muito chato</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A personagem principal parece sofrer de uma espécie de mania de cuidar do outro e não olhar para si, personagens como os pais do falecido suicida mudam repentinamente de personalidade, muito irreal</t>
+          <t>Não gostei da escrita do livro, a história toda é contada atraves de troca de e-mail entre os perssonagens! não me prendi na leitura...resumindo está descartado do meu kindle. essa é a minha opinião , mas há quem goste desse topo de leitura.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Eles não gastam com papel, como pode um ebook custar tanto, se tivesse mais barato todos iriam comprar. É um livro incrivel, mas não vale o preço!</t>
+          <t>Totalmente insatisfeita com a entrega Amazon. Terceira vez que tenho atraso nas estrelas de livros e as crônicas que era pra ter recebido dia 11/12 não foram entregues.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Não gostei do livro, achei cansativo, cheio de palavras difíceis, parece que a estória não desenrola. Não consegui nem terminar de ler.</t>
+          <t>Com a popularização dos e-book houve uma falsa ideia de baratear o preço das obras digitais, visto que, a grande maioria dos livros a venda aqui encontram-se mais caros do que sua versão em papel. Ledo engano em pensar que eu substituiria meus livros tradicionais por e-book, continuarei comprando meus livros e usufruindo os e-book de até 12 reais, que julgo um preço justo.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Com o box Harry Potter - Edição especial da Amazon mas veio com defeito no livro 5 nas letras douradas que está descascada. Solicitei a troca e recebi um segundo produto, mas este também estava com defeito na capa no livro 5. Solicitei a troca uma terceira vez e ainda veio com problema. Como era em um livro diferente consegui trocar pelo livro do outro box que estava comigo. Mas fiquei decepcionada com a qualidade do produto.</t>
+          <t>A edição veio de cabeça para baixo em relação as páginas, como só consegui começar a lê- lo por agora, não tinha notado o defeito. Até hoje não consegui falar com a editora para que haja a troca por uma edição correta.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Há anos que os leitores reclamam da péssima formatação deste livro de Narloch. Por que a Amazon não providencia uma reformatação e a envia para os que já adquiriram o e-book? Incompreensível. Avaliações de dois meses atrás ainda relatam o mesmo problema. E por que os clientes continuam comprando, se têm acesso a essas críticas? Mistérios.</t>
+          <t>para esse pessoal qualquer chama de orgulho a pátria vai se transformar na volta de algum ditador ,isso demonstra a banalização de termos como '' fascista '' nazista'' etc que vemos ser usadas diariamente nos dias de hoje para todos que discordadão da opinião do establishment , e a forma com que o livro é super recomendado por essas entidades só demonstra isso com mais força.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Já parei de ler. História sem graça.</t>
+          <t>Tive a oportunidade  de ler trechos da edição impressa e sou obrigada a concordar com o que dizem, na internet: "Reza a lenda que, cada vez que alguém lê este guia, um historiador cai de um penhasco". O texto é, literalmente, incorreto. Cita autores como José Murilo de Carvalho de forma desonesta, sem esclarecer  que o autor enfatizava que os Direitos, no Brasil não foram fruto de conquistas mas sim de conceções das elites dominantes. Uma tentativa ambiciosa e infrutífera  de negar a exploração dos povos do Sul pelos do Norte, de se apropriar e distorcer a narrativa histórica em prol do ideais neoliberais.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Os textos são soltos, trechos bem reflexivos sobre a natureza feminina, sentimentos e relacionamentos, mas esperava mais poesia e profundidade.</t>
+          <t>Preço extremamente abusivo. Queria tê-lo original. Porém, leio a versão gratuita conseguida facilmente em sites que disponibilizam de graça livros para e-readers.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Recebi o produto todo amassado, e com páginas dobradas e marcadas. Não valeu a pena. Foi de péssima qualidade o serviço.</t>
+          <t>Péssimo, um tentativa de fazer dinheiro apenas, traz informações mentirosas, alem de nao conter fontes confiáveis, isso nunca sera uma livro de historia, no máximo de humor</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A história é muito bem contada. Intensa. Leva você a acreditar que vão superar, que o amor supera tudo, mas não segue essa linha e a dor que causa no fim, para mim não valeu. Te deixa um vazio de luto literalmente.  Por isso classifiquei dessa forma.</t>
+          <t>O livro começa bem, mas aos poucos começa a fica desinteressante e cheio de exemplos cansativos. O tema é interessante, mas não é trabalhado de forma agradável.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Muita gente que comprou esse box reclamou que chegou com algum defeito. Achei que o meu viria em perfeito estado, mas não veio. É bem provável que estava na promoção somente os estragados. Nunca mais compro na Amazon.</t>
+          <t>A autora tem uma qualidade enorme nesses livros nacionais que a Amazon oferece em ebook: ela escorrega pouco nas regras do português. Faz um texto bacana! Mas a história...é ruim... previsível demais! Além do que traz uns lances que apenas com muita imaginação pra passar batido - que garota de 18 anos se sentiria obrigada a casar com um cara 20 anos mais velho pq o pai, que está em coma, roubou uma empresa? - eu esperava mais!</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Muito fraquinho, como sempre digo, mais do mesmo que outros tantos livros do gênero. Leio para poder estudar a evolução desse gênero, mas vejo que não evolui. Falta mais compromisso.</t>
+          <t>A caixa veio estragada, queria deixar ela a mostra como produto decorativo, agora não poderei mais! Muito obrigada pelo pessimo produto</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Perdi tempo de ler autores como Gilberto Freyre, Boris Fausto, Lilia Moritz Schwarcz, Câmara Cascudo, dentre outros, para ler esse livro. Fraquíssimo e sem conteúdo. Só serve como panfleto de Bolsonaro.</t>
+          <t>Péssimo Não acredito que ela escreveu esse livro. Não dá continuidade ao último livro. CHATO, não fala coisa com coisa. Decepção é pouco, estou irritada! É melhor fazer outro livro final!</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Podem me explicar do porquê deste preço pra versão digital? Quase o mesmo preço da versão física e mais cara que a versão pocket. Qual a jutificativa pra tal abuso? Transporte não é, nem o papinho de manutenção de software (pq isso vc paga uma vez por ano), é só uma cópia do que já tem impresso. #wtf</t>
+          <t>Confesso que quase desisti de ler a biografia da Rita Lee. Cheguei até uns 35% e cansei. O que se iniciou super bem, divertido até, passou a ser arrastado ao citar em detalhes o panorama musical em que ela começou, anterior ao meu conhecimento musical (ela é de 1947), e que me deixava perdida nas explanações. Segui pulando as partes muito descritivas de shows. Não há dúvidas que Rita Lee teve uma vida tumultuada, cheia de eventos incomuns e seu livro é um relato bem humorado de tudo que ela viveu. No entanto, é uma leitura para fãs de carteirinha, não tem muito ritmo para quem está em busca de um livro gostoso.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Um livro leve, de fácil leitura e linguagem simples (ou simplória), cheio de obviedades e senso comum, e que não acrescenta muito (ou quase nada), ou seja, tem tudo para ser um best-seller no Brasil.</t>
+          <t>Sempre comprei livros na edição americana da amazon. Fiquei feliz com a amazon chegando ao Brasil, mas não consigo entender como os preços dos ebooks podem estar tão altos. Voce tem que comprar um kindle e depois ainda pagar mais caro pela versão digital do livro. Como isso pode funcionar? A versão americana fez sucesso de outra forma. Espero que mudem a política aqui no Brasil para estimular o consumo de ebooks.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>O livro é um obra prima. Mesmo para quem não é fã de fantasia, a trama te prende do inicio ao fim. Mas o preço não ajuda, paguei R$30,00 na versão física. Espero que a Amazon reveja esses preços.</t>
+          <t>"Nossos parentes vivos mais próximos incluem chimpanzés, os gorilas e os orangotangos. Os chimpanzés são os mais próximos. Há apenas 6 milhões de anos, uma fêmea primata teve duas filhas. Uma delas se tornou a ancestral de todos os chimpanzés; a outra é nossa avó." Até hoje não foi encontrada prova de evolução, ou seja, não há prova de que um anfíbio se tornou réptil, ou que um chimpanzé se tornou humano. Somente especulações, baseadas em ideias. Tem que ter mais fé para cer nessa história do que para crer que Deus criou o Universo e tudo que há nele. Mais um livro da moda do ateísmo.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Um título impactante, mas o conteúdo nem tanto. O autor chegar a ser bem redundante em vários capítulos, com temas evasivos e, pouca coerência, ou seja, corrobora o que outros escritores já disseram. Enfim, não gostei da forma de abordagem do autor, por vezes o achei infantil.</t>
+          <t>Não gostei. Não fala nada de novo. Não empolga, aliás é bem chatinho. Não consegui terminar. Difícil entender como está na lista dos mais vendidos.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>É exatamente a mesma história de Garota Exemplar. Não empolga muito, ainda mais se for lido em sequência. Não consegui nem terminar.</t>
+          <t>A Nova Fronteira perdeu a oportunidade de nos entregar um produto à altura da obra. Não sei qual foi o cálculo editorial que a levou a reproduzir as magníficas ilustrações de Gustave Doré no tamanho 9 x 6 cm - é de chorar! Como prêmio de consolação, acompanha os três volumes um caderno extra, de 32 páginas, com uma seleta de 24 ilustrações. Aqui estão impressas maiores, tal como deveriam estar no corpo do livro, mas a impressão deixa muito - muito - a desejar. A tradução não prometia novidades, uma vez que a tradução de Xavier Pinheiro é centenária e do domínio público. Não há, a propósito, nenhuma informação sobre o tradutor e a tradução, o que seria de se esperar numa edição cuidadosa, como sinal de respeito ao leitor. A introdução saborosa de Otto Maria Carpeaux é de 1967, e sobre quem é ele ou sobre a data em que escreveu a introdução, também não se dá notícia. Ou seja, a edição é bonitinha, mas ... descuidada.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Enganador, não vale dois reais. Falta de objetividade. Não fala nada de técnicas de leitura dinâmica. Uma enrolação sem limites. Como esse livro esta disponível na Amazon?</t>
+          <t>Sem conteúdo muito livro para pouco história.. E o do final da coleção deixa muito a desejar.. franco...</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Eu estava disposto a comprar este livro, mas sem um posicionamento oficial da Amazon quanto às denúncias indicando que este e-book é uma versão "pirata", que sequer foi traduzida pelo Jorge Candeias, não se pode fazer nada. Não estou disposto a jogar meu dinheiro fora em um material de baixa qualidade. Me decepciona a possibilidade de isto estar acontecendo na loja da Amazon aqui no Brasil. Está parecendo descuido, descaso, falta de seriedade com os consumidores brasileiros.</t>
+          <t>Eu adquiri o primeiro volume individualmente e quando vi este combo achei que seria vantajoso. Mas como alguém comentou a respeito da tradução, baixei uma amostra para comparar com o volume adquirido previamente. Realmente a tradução deste combo está voltada para Portugal, o que não acontece com a tradução do volume individual adquirido separadamente. A informação do idioma deveria ser clara e explícita. Do jeito que está, parece má fé da editora. E é.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Uma pena a editora ter se prestado a esse desserviço social e cultural. Literalmente se vendeu à escória desse país: irmão Neto (Veio-me até ânsia à boca só de escrever isso).</t>
+          <t>Este livro não é um trabalho sério. Parece escrito por uma criança muito mimada que não gostou do que viu nas aulas de história e queria mudar o roteiro para que os brancos fossem bonzinhos do início ao final.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Dei uma estrela por que não havia a opção de não dar nenhuma. O livro é simplesmente incompreensível para um leigo -- e tampouco serve como literatura científica para especialistas. Como o Hawking é internacionalmente conhecido como muitíssimo inteligente, acho que muita gente se acanha em confessar que não entendeu a maior parte das teorias que ele expõe (muitas delas, sem nenhuma comprovação).</t>
+          <t>Como pode esse livro está esse preço para o kindle? Isso é um absurdo, além de ser um pedido para não comprarmos .</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Esperava mais... pra escrever isso preferia ter ficado em casa tomando chá. Precisa de algo a mais para se redimir dessa perda de tempo. Um novo livro a altura do legado Potter</t>
+          <t>Steven Levitsky é um conhecido opositor de Donald Trump e a sua abordagem apresenta um forte viés ideológico. A realidade é que esse autor se julga o dono da verdade no que concerne ao conceito de democracia. É clara a sua visão obtusa sobre os novos tempos e seu propósito doutrinador. Não recomendo a sua leitura!</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>leve, leve , acabou</t>
+          <t>Olavo é um fanático religioso que encontrou público farto para ler sua pseudo-obra. Uma destilação de senso comum com mesclas de ódio, preconceito e discurso autoritário. Triste.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Delírios paranoicos para pessoas idiotas. Se é um livro para não ser um idiota automaticamente é para idiotas. O autor deve ficar dando risada, pois tantos idiotas compram esse livro!</t>
+          <t>Em meio a um processo de decisão (compro ou não compro um Kindle), me deparo com uma resenha ABSURDAMENTE negativa, mencionando diferenças nos textos entre a versão impressa e ebook. Aí vai ficar difícil, Dona Amazon... Favor se pronunciar se essa "política" vai permanecer...</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Não foi exatamente o que eu esperava. Tem muitas ilustrações e pouco conteúdo.</t>
+          <t>Pra variar, mais um autor explorando a vontade das pessoas de ficarem ricas. A pior parte é quando ele diz que "se eu desejo, o universo conspira a favor" o que é uma bobagem sem sentido algum para alguém que olha uma foto do cosmos. Não apenas é ridículo pensar dessa forma, como é irreal. O planeta inteiro, e não apenas você, poderia sumir e o universo sequer perceberia. Mas o autor insiste na declaração. Para não dizer que só maldigo, o livro explora as relações subconscientes entre dinheiro e comportamento, o que é válido Porém, muitos outros autores exploram de maneira muito mais científica. Acho que a sua popularidade se deve ao: 1- emprego do linguajar popular, com palavras de fácil entendimento e fortes apelos, tal qual qualquer forma de persuasão existente, como política ou religiosa. 2- Uso da vontade, do anseio das pessoas em serem ricas. 3- Apelo ao emocional, ao intangível para conseguir fixar o leitor Ou seja, as técnicas empregas visam atrair o leitor mais por anseio do que por informações factíveis.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Para quem gosta de poemas simples, esse é o livro ideal! A autora nos faz refletir sobre alguns elementos comuns na vida das mulheres de um jeito bem leve</t>
+          <t>Fiz a compra do produto e chegou tudo certo conforme o prazo, no entanto a embalagem do plastico já estava aberta e o livro número 7 da série chegou rasgado conforme as fotos, irei devolver o produto e já fiz uma nova compra dele, caso nessa nova compra o produto chegue danificado novamente, irei devolver também. Infelizmente não poderei prazentear minha namorada no natal a tempo, uma vez que a nova compra somente chegará dia 27.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>mais do mesmo. Pelo menos acabou! Só li este livro porque não consigo deixar séries  incabadas, e a autora prometeu que este será o último  crossfire.</t>
+          <t>Não tem nada indicando que é em português de Portugal, já é o terceiro ebook que comprei que acontece isso. Horrível.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Apesar de não influenciar no conteúdo do livro, não é esteticamente legal. Deveriam ter mais cuidado e conferir a qualidade antes de enviar qualquer produto.</t>
+          <t>A razão nem encosta no pensamento confuso e contraditório. Não é um estudioso, é apenas um compilador que distorce ao bel prazer e engana aqueles que desconhecem outras obras. Ele aposta na ignorância dos seus leitores para tentar construir uma narrativa "fática". É superficial e conflituoso. Nada justifica um elogio. Não desperdice seu tempo.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Leonardo DaVinci foi um artista revolucionário. Nenhuma dúvida quanto a isso. Mas o autor consegue transformar sua história numa chatice repetitiva que não empolga além dos dois primeiros capítulos. Ao optar por se debruçar nas páginas dos cadernos de Leonardo, Issacson escolhe informações muitas vezes absolutamente irrelevantes que parecem estar ali não para dar uma ideia de quem o artista era, mas apenas para encher páginas e repetir informações que em muitos casos já foram dadas em momentos anteriores do livro. Além disso, as análises minuciosas de muitas das obras de Leonardo acabam ficando desinteressantes - talvez porque eu não seja um grande conhecedor de arte - e também muitas vezes chatas, fazendo com que a leitura se arraste. Desconfio que o próprio Leonardo, assim como eu, teria largado o livro pela metade e procurado algo mais interessante para ler.</t>
+          <t>O autor levanta questões a respeito de nossas motivações, comportamentos e intenções ao trabalhar, nos desafia a estar em estado de constante movimento e não cair na alienação da rotina. Não gosto muito do estilo de escrita do autor mas o assunto é pertinente.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Esse tipo de material é responsável pela desinformação de muitas pessoas, infelizmente. Vivemos em um país cuja população carece de um conhecimento mínimo a respeito de sua história e o livro em questão é um desserviço. Considerando as barbaridades que são ditas, esse livro deveria estar na seção de ficção (muito mal intencionada). Lamentável.</t>
+          <t>Olavo de Carvalho escreve muito bem.  Porém,  o conteúdo deste livro é comprometedor.  No geral,  é muito generalista,  tem  achismo  de mais é informações que ele não pode defender.  Além do Mais, Como confiar em um escritor  que declara que Niels Bhor e Werner Heisenberg são os inventores de tudo que não presta e que Max Karl Ernest Ludwig  Planck foi o "inventor" da teoria quântica, que o heliocentrismo é uma mentira  e  o Nazismo é de esquerda.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Perceber que este livro está entre os mais vendidos no Brasil é um sintoma que precisamos estudar. Li e percebo que se trata de uma conversa do autor compartilhando sua vida, suas experiências positivas de superação das dificuldades. Problemas, acidentes, doenças? Todos temos. Superações? Todos enfrentamos. O que o faz diferente? Ele transformou a superação e o compartilhamento de suas histórias em um negócio. Vende palestras, conselhos e livros. O que era para termos gratuitamente através das boas conversas com nossos familiares e amigos - ganha status de necessidade de compra. Por isso vejo como "triste". E o conteúdo? O mesmo de todo livro de auto-ajuda. Neste livro há uma série de sugestões, de hábitos para você criar para alcançar o sucesso em qualquer área. Qualquer? Sim, o autor "promete" isso, perigosamente.... tem coragem suficiente para prometer, afirmar, convidar, enfim... e a julgar pelo número de vendas - está convencendo. Brasileiros precisam de conselhos simples, por que não encontram em seu dia a dia estas orientações. Não é um sintoma importante para analisarmos?</t>
+          <t>O texto fluído e, em alguns, uma boa argumentação não esconde infelizmente a adesão a um pensamento conservador e preconceituoso, principalmente quando o autor aborda a religião. Para justificar seu catolicismo radical, não usa premissas, só conclusões.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>O conteúdo é interessante mas está parecendo que a tradução foi feita com muito descuido. Além de a linguagem ser quase infantil, tem erros na formação e descontinuidade nas frases.  Parece mal revisado.</t>
+          <t>O livro não responde ou ajuda responder a pergunta de seu título. Percebe-se claramente que se trata de um autor do sexo masculino, branco, de meia idade, de classe média alta/alta, dono de empresa/empregador. Não se adapta a realidade de grande porcentagem da população. Cita falas e apresenta crônicas da vida do autor ou alheia.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>depois de fazer o pedido que vi que era pocket e pelos comentários... Espero sinceramente que eu consiga cancelar. Decepcionada mesmo.</t>
+          <t>Infelizmente a autora parece ter cedido às exigências cinematográficas, já que esse livro claramente é uma história intermediária, deixando margem pra um terceiro livro. Não seria um problema se o livro não fosse 50% enrolação e a história com uma temática completamente desinteressante. O oposto do primeiro livro.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Entrega bem rápida,mas tanto a caixa,quanto as laterias dos livros vieram um pouco danificadas,com pequenas marcas.O plástico que vinha para proteger,também já estava um pouco rasgado.</t>
+          <t>Minha sobrinha pediu de aniversário, mas vou acabar tendo que comprar outra coisa, é uma verdadeira porcaria. Parece uma revista de banca daquelas sem a mínima qualidade.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Tão contraditório que parece ter sido escrito por um adolescente. Incrível como alguém com experiência em escrever não perceba a falta de coesão entre as ideias do livro. Começa se posicionando como uma espécie de anti auto ajuda e acaba sendo o auto ajuda mais pesado que eu já li. Pontos pelo estilo dinâmico da escrita e por em alguns momentos no meio do amontoado caótico de ideias conseguir fazer o leitor refletir. Vale a pena a leitura, só não deve ser uma prioridade de escolha e muito menos ser considerado ao pé da letra.</t>
+          <t>Quando comprei esse livro fui com uma grande expectativa e ela não foi atendida, muito menos superada! Até certa parte o livro é bacana, é quase como um tapa na cara, me identifiquei com algumas situações que o autor passou, mas depois a leitura vai ficando repetitiva e cansativa.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Assim como várias pessoas estou decepcionada com o final sem fim deste livro. Muitas perguntas sem respostas. Acredito que o fato da escritora ter assinado contrato com uma grande emissora americana para lançar uma série baseada no livro fez com que ela deixasse brechas para serem preenchidas durante a série, mas isso não justifica a falta de compromisso/respeito com os leitores. Me senti uma idiota ao chegar ao fim do livro e ué cadê o fim ?????? Já no 4º livro já tinha ficado claro a enrolação. Agora só nos resta esperar.</t>
+          <t>O espaçamento no livro todo está desconfigurado. Algumas linhas só  com duas ou três palavras.  Outras sem nenhum espaço elas. Atrapalha MUITO a leitura.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Isto. Não. É. Poesia. Muito. Menos. Poema. Há zero páginas de poemas nesse livro. Existem 208 páginas de trechos do que parece ser o diário de uma menina de 13 anos, com quebras de linha aleatória, rabiscos legais e capítulos ocasionais com títulos temáticos, para que você saiba quais emoções a autora está tentando extrair de você. É vergonhosamente derivativo e não emprega quase nenhum aparato poético. Os fragmentos de sentença são usados porque é o que se espera de um poema, mas a autora não parece entender que eles servem a um propósito e devem contribuir para o significado maior do poema. As alusões e metáforas são deslocadas e incongruentes, porém, estão sendo apresentadas ao leitor como arte. Não há nada de novo, interessante, criativo ou poético nesse livro, é tudo muito clichê - e não no sentido positivo da palavra. Não sei por quê as pessoas enlouqueceram com esse livro e dizem que é lindo e é o seu livro favorito, porque, honestamente, é bastante claro: a maior parte dele é apenas períodos básicos com quebras de linha aleatórias, e que ficariam muito melhor se fossem linha corrida. Não são muito líricos e, literalmente, são como ler uma frase normal. Eu esperava adorar todas as páginas, mas eu só marquei 7. Para as pessoas que nunca leram poesia e nem poema fora da escola, esse parece ser um ótimo livro. Os conceitos, especialmente quando se aproximaram dos aspectos feministas, simplesmente não me impressionaram. Um texto inteiro sobre "você não precisa de um homem" foi apenas uma repetição das coisas que eu tenho ouvido há anos. Foi uma leitura rápida, mas frustrante, o que me deixa triste porque é uma crítica tão má para uma autora que tenta colocar bastante emoção em seu trabalho. Resumindo em duas palavras: superestimado e superficial.</t>
+          <t>Recebi o produto avariado, no mesmo dia reclamei e a Alfa livro trata com descaso a situação, querendo que eu arce com o custo de envio do livro avariado e se quer postou outro livro. O que era um presente para minha esposa virou um martilho.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Me sentir enganado ao ler o livro, paguei para ler propaganda de um método que está a venda. Recomendo que retirem o livro do site, é uma vergonha ter um livro desse a disposição para venda.</t>
+          <t>Prezados, Acredito que houve um erro, pois descontaram o valor deste livro no meu cartão de crédito. Quando escolhi este livro foi no dia 30 de março no momento de uma campanha da empresa de doação de Ebooks e este livro era uns dos livros disponíveis gratuitamente. Espero uma solução rápida, pois não gostaria de ser lesado.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Ao ler os livros, até então, eu não havia encontrado nenhum erro (revisão nem tradução). Porém no livro 5 (Harry Potter e a Ordem da Fênix) encontrei um grave erro (pelo menos na edição em que comprei), e chega a impedir o leitor de continuar a leitura, não garantindo uma boa experiência, impedindo-o de terminar o livro e a história. O erro em questão está no capítulo Trinta e Um "N.O.M.s". O capítulo inicia e segue normalmente por algumas páginas até chegar à página 576, e então onde deveria haver a próxima página 577, há em seu lugar a página 545, e assim segue até chegar novamente à outra (uma nova) página 576, e onde novamente deveria haver uma página 577 na próxima página, há a página 609, pulando assim 2 capítulos da história do livro. O box é resistente, bonito, de boa qualidade e não há aquele problema onde não cabem os livros. Os livros possuem excelente capas, bonitas assim como o box. A fonte é um pouco menor, mas nada que atrapalhe na leitura. Páginas de ótimo material. O box chegou com nenhum problema, o transporte foi ótimo.</t>
+          <t>Fanfic das mais toscas que já vi. Deturpa vários personagens como o Rony e o próprio Harry e os personagens novos são completamente sentido.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Fraco</t>
+          <t>Pessoal, vocês poderiam ajustar a fonte para justificada? Após a alteração aumento as estrelas! (Nada contra a série, acho a excelente a história)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Rasgos</t>
+          <t>Tendencioso, pensamentos de extrema-direita, classifica todas as minorias como vitimismos e coloca toda culpa no PTismo/lulismo/comunismo... grande ignorância ler esse autor e perigoso à aqueles brasileiros que já flertar com tais preconceitos, irão os ter reafirmados.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>O texto é caótico. Cheio de idas e vindas que acabam misturando eventos que, apesar de cronologicamente simultâneos, tiveram pouca ou nenhuma relação histórica. Inferno é bem melhor.</t>
+          <t>Uma promoção onde daria de graça o livro digital para ser lido na verdade me cobrou equivocadamente R$ 21,00. Entrei o contato para pedir o meu estorno e nunca mais comprarei neste site pelo desconforto oportunista que está me causando.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Intediante, chato, o livro fica por dizer coisas óbivias e por isso acaba por ser irrelevante, então não o recomendo.</t>
+          <t>Comprem Os Miseráveis, de Victor Hugo, editado pela COSAC NAIFY, tradução impecável. Vale muito mais a pena. Não julgue um livro apenas pela capa. O mesmo vale para Crime e Castigo, da Martin Claret. Este último, indico pela editora 34.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Que livro é esse?! Pior obra já publicada e cara, desperdício de dinheiro. Filosofia de banheiro, pensei que era um livro sério, mas não, apenas birra de criança em textos ué muitas vezes chegam a parecer redação de ensino fundamental. Lamentável uma publicação de tão baixo valor e que acrescenta menos ainda. Não indico nem para porta copos.</t>
+          <t>Comecei a ler esse livro porque amei o anterior e fiquei curiosa sobre a continuação,mas me decepcionei completamente! Totalmente desnecessário e pra usar palavras fofas,diria que é chato! Não gostei nem um pouco!</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Acabo de ver a trilogia impressa por 54,90. Amazon está sendo ridícula com esse preço. Pensava seriamente em comprar a edição Kindle, mas vou ficar com os que tenho mesmo. Inviável.</t>
+          <t>Mapa da versão digital não é nítido e é muito importante entender o mapa pra entender a história é isso atrapalhou minha experiência</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Talvez a tradução antiga tivesse um pouco mais de charme e musicalidade, o que conferia uma certa elegância ao livro. Sinto que isso infelizmente não foi mantido nessa edição do eBook.</t>
+          <t>Veder essa porcaria como se fosse História é um crime, uma afronta aos historiadores de verdade. O cara não sabe fazer pesquisa histórica, isso é uma enganação. Não comprem essa droga</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Comprei a versão eBook Kindle e me arrependi profundamente. Claramente não passaram muito tempo polindo ela. Existem diversos erros de formatação que uma simples revisão teria capturado.</t>
+          <t>Mais um livro pra falar mal do cristianismo e distorcer a Bíblia e ainda por cima com um final péssimo. Se eu recomendo pra alguém? Nem pro meu inimigo. Concordo com a opinião acima de lixo nacional já estamos cheios não precisamos de lixo traduzido.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Só recomendo Sapiens .Provavelmente as previsões de Homo Deus nunca se concretizarão!!!!!!!!!!!!!!!K Chato e muito frustrante , tudo ali é pura idealização de um futuro impossível.!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!K</t>
+          <t>Bobagem, 70% do livro são descrições de "trepadas". A estória em si é igual a milhares. A personagem feminina ainda existe, a masculina é um sonho de adolescente.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>O livro fala o que realmente fazemos e porque fazemos, da boas sugestões para melhorar habitos bons! Gostei do livro vou rele-lo e recomendo</t>
+          <t>A primeira coisa que devo dizer sobre o livro "Muito Mais que 5inco Minutos" é que o título é preciso. Consegui lê-lo em pouco mais de três horas, o que é, definitivamente, muito mais que cinco minutos. Ganhou pontos logo de cara pelo acerto cronológico e honestidade para com o leitor. "Muito Mais que 5inco Minutos" é claramente voltado a jovens naquela fase em que lutam furiosamente contra a explosão hormonal, apesar de uns lances estranhos como falar de namoradinhos aos 8 (!) anos. Kéfera fala do seu primeiro beijo (aos 15), do nojo de "engolir a saliva de outra pessoa", dos traumas e horrores desse ponto tão conturbado da vida, sempre usando a sua própria história como contexto, afinal é um livro da Kéfera, sobre a Kéfera, para os fãs da Kéfera. Isso parece invalidar qualquer assunto que não envolva o umbigo da Kéfera. Entre as páginas também aparecem umas fotos dela com o dedo indicador em riste, outras fazendo o símbolo demoníaco do rock'n'roll e algumas de um cachorro que, presumo, seja dela. O problema (ou qualidade) do relato é que é uma história banal, dessas que qualquer roteirista júnior recém-saído do seu curso de cinema pretensioso poderia bolar — sem nem estar chapado — e, ainda por cima, contada de uma forma rasa e sem graça. Posto de outra forma, é a história de vida daquela sua prima ou irmã de 15 anos que passa dias na fila para ver o show da última cantora da Disney e gasta R$ 500 em meet &amp;amp; greet para desgosto profundo dos seus pais. Minha crítica completa:(...)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Livro meio fantasioso , quer dizer que quase não temos guerra ? Quer dizer que já minimizamos a fome ?! Não faz muito sentido ; sem contar que está mais para um tratado ateísta do que um livro visionário , eu não curti muito ... O sapiens é muito melhor ; não cometa o mesmo erro que eu comprando esse antes do sapiens !</t>
+          <t>Apesar das críticas e sucesso, não consegui terminar! Não gosto de auto-ajuda e não foi dessa vez que gostei. Foi uma tentativa... então se você, assim como eu não gosta, não tente!</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>O livro não responde ou ajuda responder a pergunta de seu título. Percebe-se claramente que se trata de um autor do sexo masculino, branco, de meia idade, de classe média alta/alta, dono de empresa/empregador. Não se adapta a realidade de grande porcentagem da população. Cita falas e apresenta crônicas da vida do autor ou alheia.</t>
+          <t>Entrei num endereço sobre o ganho de um livro em Kindle no dia 30/3 escolho o livro e imediatamente ao fazer meu login o valor eh debitado do meu cartão! Um absurdo! Não queria comprar o livro! Solicito uma devolução imediata do valor!</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Esperava bem mais desse livro! A história é muito previsível, além de parecer com outros livros como A Seleção e Sombra e Ossos. Parece que a autora misturou esses dois enredos anteriores para criar A Rainha Vermelha! Não recomendo</t>
+          <t>Boa noite, não gostei da qualidade das folhas super finas,se consegue ver as letras da  outra pagina,mias pelo custo ,coloquei 2 estrelas mais não compraria novamente,devido a qualidade das folhas como havia informado!</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Desculp,e mas destrui o livro que dei de presente, ele apresenta uma brincadeira de "trepa, casa ou passa" ridícula, além de incutir ideias nas cabeças das jovens achei de extremo mal gosto, salvo se desejam que sua filha tenha uma visão mais promiscua da vida, ai ele norteia direitinho!Não recomendo, horrível!</t>
+          <t>Não consegui ler o livro todo, a escrita não é fluída, os personagens não são consistentes... Não gostei. Me arrependi da compra!!</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Um livro sensacional. Tenho aplicado o conceito para adotar novos hábitos positivos em várias áreas da minha vida... Bom dia!!!</t>
+          <t>Enredo clichê, tenho absoluta certeza de que muitas outras pessoas também perceberam como o livro terminaria. A ideia de colocar 3 narradores em primeira pessoa só confunde o leitor e atrapalha no entendimento dos fatos. Personagens sem desenvolvimento, sem um passado que descreva suas ações. O thriler "psicológico" não existe, pois a autora não soube desenvolver em nenhum momento a tensão que deveria existir em momentos críticos do livro. Fraco demais, ainda não consigo entender o hype causado por este livro.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Essa versão Combo Ebook de "As Crônicas de Gelo e Fogo" possui inúmero erros de português, de ortografia e concordâncias nominal e verbal. Além de ter diversas palavras grudadas umas nas outras. Já entrei em contato com o SAC da editora Leya e ele dizem que vão corrigir, mas não o fazem. Já faz mais de um mês e nada foi feito. Agora nem respondem mais os meus e-mails.</t>
+          <t>Apesar de ser um indivíduo da espécie Homo sapiens, o autor deste livro não é um ser humano com sabedoria.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Que livro chato, gente quase não consegui terminar de ler o livro! Fui realmente insistente. A história não casa, e cansa, parecem outros personagens, não são as mesmas pessoas do inicio do livro. Aí vc pode até defender e falar, mas eles amadureceram, puxa vida que saco, amadureceram e ficaram extremamente sacal. A história se perdeu, deveria ter terminado no terceiro livro e ponto. Fazer livros só para vender é um desrespeito com os leitores, e no caso dessa série foi exatamente isso. Eu li só para terminar, porém pulei mais da metade das páginas. A trama deste livro não é envolvente, não acrescenta nada e pior ficaram muitas pontas soltas. Não recomendo esse último livro.</t>
+          <t>Livro com um monte de clichês, mas com pouco conteúdo prático em termos de técnica de aprendizagem. Dispensável e na linha auto-ajuda vazia.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Só um livro de uma pessoa senil que nunca cursou o ensino médio (completo) de nenhuma escola.</t>
+          <t>O autor descreve muitos casos para ilustrar suas ideias de forma repetitiva. Contudo na hora de ensinar as técnicas para que possamos mudar nossos hábitos ele trata a questão de forma bem resumida (em umas poucas páginas). Não recomendo a leitura por não apresentar,na minha ótica, uma solução viável para que busca uma mudança de hábitos.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Gosto demais dele pela  vasta cultura geral e enorme carisma que exalam em suas palestras. Porém o livro é frio e distante.</t>
+          <t>Vetusto, tanto quanto o próprio autor, comprar um livro do sofista Olavo de Carvalho nos dias de hoje faz parte do surto de estupidez coletiva que sufoca a sociedade brasileira, e chamá-lo de "filósofo", é a maior incongruência da história (pobre sim) filosófica do Brasil. Mas é um bom livro para aqueles fanáticos que não entendem de filosofia e pretendem piorar, ainda mais, suas vagas noções.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>É um ótimo livro para quem é, e deseja ser um analfabeto político. É, também, perfeito para pessoas cheias de achismos como aquelas que chamam liberais de fascistas! Péssimo.</t>
+          <t>Não gostei!, acabou com a expectativa que os outros livros deixou, esperei um desfecho da história dos dois, mas esse livro começou e terminou sem pé nem cabeça! !</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Péssima folha, muito fina a ponto de ver o que há por trás, se fosse só isso, pelo preço o comprador até entenderia. No entanto, é inadmissível que as folhas estejam rasgadas, "comidas" e cortadas. A impressão do texto chega no fim da página (literalmente, no fim da página) a ponto de cortar pedaços das letras. Depois volta à diagramação medíocre. E quando pensamos que está tudo "bem", aparece as palavras comidas novamente. Sem contar também o horrível estado da caixa e dos livros, amassados e feridos (este pode ter sido devido ao transporte). Seria melhor não colocar o box neste preço se significar o trabalho porco da editora Leya.</t>
+          <t>Em poucas palavras: uma imensa perda de tempo. É o que esse livro é. Não consigo entender como este cara conseguiu impressionar tanta gente e se tornar conhecido por uma porcaria como essas. Sempre detestei autoajuda, mas a fama desse livro me motivou a lê-lo para poder falar com conhecimento de causa, e agora, posso afirmar, sem sombra de dúvida, que o título deveria ser "Como adular pessoas e se fazer de otário frente a elas". Siga esse livro à regra e torne-se uma pessoa incrivelmente chata, com "técnicas" manjadas e enfadonhas de como tentar parecer alguém agradável e legal, quando, na verdade, seus interlocutores perceberão que você só pode ser muito trouxa de agir assim. Sério. Se você curte autoajuda, vá procurar outra coisa pra ler, imagino que tenha algo melhor. Se você não curte autoajuda, nem tente ler esse lixo. Não vale os poucos reais que você irá gastar com ele.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Eu adquiri o primeiro volume individualmente e quando vi este combo achei que seria vantajoso. Mas como alguém comentou a respeito da tradução, baixei uma amostra para comparar com o volume adquirido previamente. Realmente a tradução deste combo está voltada para Portugal, o que não acontece com a tradução do volume individual adquirido separadamente. A informação do idioma deveria ser clara e explícita. Do jeito que está, parece má fé da editora. E é.</t>
+          <t>Considero um livro escrito para idiotas. Pésssimo. Tive o prazer de queimá-lo.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A edição conta com muitos equívocos de grafia e de pontuação, além de ficarem dúvidas sobre a completude da obra.</t>
+          <t>Infelizmente a caixa veio rasgada. A Amazon prontamente trocou o produto, mas veio rasgada novamente. Na segunda tentativa de troca a Amazon entendeu bem o problema mas preferiu devolver o valor pago. Não era a solução que eu gostaria. Minha intenção era apenas substituir novamente. Acabei ficando com o produto avariado mesmo. Entendo o motivo da opção pelo reembolso, a recorrência do problema e os custos envolvidos, mas no fim não era a melhor solução para mim.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Jorge Candeiras é o tradutor da versão portuguesa do livro e não da versão brasileira, mas a Amazon vender no Brasil um texto com português de Portugal e não avisar é desrespeito.</t>
+          <t>Fraquíssimo, conjunto de frases de efeito que não levam a nenhuma informação ou visão nova, tipo Tenha foco nos seus objetivos que seus problemas serão resolvidos.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>É com muita tristeza que venho redigir essa resenha, mas infelizmente a Amazon pecou na venda desse box. A fotografia do box, aparece livros pretos com acabamento dourados, mas recebi livros preto com (um péssimo) acabamento prata. (O livro veio com defeito de fábrica, com cola grudada em 2 livros e capa descascando em 1.) Não foi especificada em momento algum da compra que as folhas eram brancas e sem orelha. Essa compra se justifica numa máxima popular: "O barato sai caro.".</t>
+          <t>Pelo amor de Deus!!!! que preço é este......só mesmo no Brasil; e é porque livro ainda é imune de impostos.....</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Basta não ler esse livro, e você não será um idiota, acredta nesse autor é a pior experiencia que você terá para ser um uma pessoa sem senso crítico e que acredita em metiras pré-facricas.</t>
+          <t>Não é tudo isso que falaram pelas redes sociais. Esperava muito mais desse livro por ser tão "aclamado" na literatura contemporânea.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Em poucas palavras não gostei nada. Como costuma acontecer com "certos" best sellers, o autor parte de uma premissa e não está disposto a avaliar outras opiniões. Tira conclusões sem qualquer embasamento (nem todas, verdade seja dita). Não entendi porque tanta aclamação feita a esta obra.</t>
+          <t>Um poço de contradição por parte do autor. Comparações simplistas e sem sentido, comparando a vida é as ações com a de Bukowsk.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SE ARREPENDIMENTO MATASSE ESTAVA MORTO, (AMO LER E APRENDER, PROCURO COMPRAR E LER PELO MENOS UM LIVRO POR MÊS), GASTEI DINHEIRO ATOA, QUE LIVRO RUIM, PRESTA UM DESSERVIÇO PARA O INTELECTO DE UMA PESSOA, O AUTOR ESCREVE, ESCREVE, LÁ NO FINAL ELE DIZ QUE SÃO APENAS DEDUÇÕES E QUE NÃO SE PODE AFIRMAR NADA. NÃO CONSEGUIR IDENTIFICAR NENHUMA NOVIDADE EM UM LIVRO DE MAIS DE 400 PÁGINAS.  AMAZON.COM DEVOLVE MEU DINHEIRO OU ME DÁ A OPORTUNIDADE DE DEVOLVER O LIVRO OU ESCOLHER OUTRO, POR FAVOR!!!!!!! ESSE AQUI NÃO QUERO NEM COLOCAR NA MINHA ESTANTE, NÃO QUERO GUARDAR NA MINHA CASA.</t>
+          <t>A literatura em si não há o que contestar: um épico!  Porém a propaganda é enganosa quando cita " obra ilustrada". Na verdade o que tem é um pequeno encarte, com algumas ilustrações, completamente fora do contexto dos cantos, o que torna a leitura truncada se você quer acompanhar o texto junto a ilustração.  Neste sentido foi muito frustante adquirir a Divina Comédia sem TODAS as ilustrações de Gustave Dore.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>“O que os autores ao final concluem, é que enfim, um despertar conservador começa a tomar para si, as rédeas do mundo, na tentativa de poder livra-lo do caminho do abismo. Décadas e décadas de governos autoritários e/ou ditatoriais, destruíram as liberdades, as economias e a autoestima de suas populações. Crises nos Países árabes, africanos, latino-americanos, ocorrem desde sempre, e esses mesmos governos com viés de esquerda, estavam no poder; só fizeram aumentar a pobreza, a fome e a miséria; locupletaram-se até não poderem mais, emitiram moeda quando esta acabava, compraram as midias pelo mundo todo, criaram e fortaleceram compadrios nas concessões públicas em rodovias, portos, aeroportos e até na área de energia, como petróleo e energia elétrica, e ao “povo”...migalhas; Meus irmãos, recalque é para recalcadas; Já era hora de acordarmos desse transe; Gente como esses autores, que se intitulam pesquisares ou professores de Harvard (leia-se berço progressista nos EUA), são frequentemente convidados a emprestar suas credenciais e suposta autoridade a pautas como essa, que não passa de mais um vexame esquerdista, que teimam em não aceitarem que perderam as eleições...ouvirão!!???....PERDERAM AS ELEIÇÕESSS...!!! Aceitem que dói MENOS...!!! União Europeia também ruirá, se Deus quiser, e Ele quer, ainda em 2019; Cansamos de carregar vocês nas costas. Vão trabalhar um pouco, ou como se diz lá na minha terra...”vão capinar um lote..!!!”; CHEGA DE HIPOCRISIA</t>
+          <t>A obra de Arthur Conan Doyale é simplesmente excepcional, está edição esta impecável. Recebi a encomenda antes do prazo previsto porém a caixa Box onde os livros vem está com a lateral totalmente amaçada um descuido que poderia ter sido evitado com uma melhor embalagem. Sempre compro livros no Amazon, porém desta vez fiquei decepcionada.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>O livro é excelente. Um clássico. Assim que ficar mais barato será possível comprá-lo. A editora precisa ajustar os preços.</t>
+          <t>O valor do ebook está vergonhoso, quero muito mas assim não tem como comprar, enquanto não baixar consideravelmente, não compro</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A capa e as páginas próximas a orelha vieram danificadas e essa não é a primeira vez que vem assim</t>
+          <t>Achei um livro muito superficial e enfadonho. O autor fica dando giros em volta de conceitos explicados muito por cima e a suposta "receita" nunca vem. Livros como A Força do Hábito são muito mais consistentes.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Este livro tem uma narrativa confusa, contraditória. Não há embasamento científico. Trata-se de teorias defendidas pelo autor. Parei de ler , quando me dei conta que era perda de tempo.</t>
+          <t>Estou louca para ler este livro, mas enquanto não arrumarem a formatação não o farei. Por que ainda não o fizeram se todos estão pedindo a mesma coisa?</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Muito ruim, uma série de repetições desnecessárias,um insulto ao leitor que acompanhou a história. Um verdadeiro horror, não comprem, dinheiro jogado fora.</t>
+          <t>Realmente uma decepção, indignada com o site de não ESPECIFICAR o produto, custa colocar na descrição que é pocket ou versão econômica? Além da caixa vir toda riscada e amassada, os livros com a capa descascando e todos sujos com algo que parece cola, as folhas amassadas, rasgadas e com as palavras ''comidas''. Sinceramente nunca achei que fosse passar por uma coisa dessas, um site tão bem falado cometer um erro desse, nunca mais compro na Amazon e ainda vou abrir um processo, nada mais justo.</t>
         </is>
       </c>
     </row>

--- a/dados_teste.xlsx
+++ b/dados_teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/leonardoar2_al_insper_edu_br/Documents/Insper/3 SEM/CDADOS_2/Projetos/Projeto 1/Proj1_LEOTHEO_CDADOS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theok\OneDrive\Área de Trabalho\Projeto 1 Cdados 2023-2\Proj1_LEOTHEO_CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_1AB15926C05E260E62355476585DCE3A8746E67B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{108A8C22-AFEE-40CF-B850-ED340FCDDD33}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA30DBD2-AA7F-477F-B2DB-C9FBE1AD36A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="105" workbookViewId="0">
+      <selection activeCell="P188" sqref="P188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1887,455 +1887,728 @@
       <c r="A111" t="s">
         <v>110</v>
       </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>199</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/dados_teste.xlsx
+++ b/dados_teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theok\OneDrive\Área de Trabalho\Projeto 1 Cdados 2023-2\Proj1_LEOTHEO_CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA30DBD2-AA7F-477F-B2DB-C9FBE1AD36A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F65F33-C04F-4109-94EE-BC28B468A26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="201">
   <si>
     <t>Mensagem</t>
   </si>
@@ -623,9 +623,6 @@
   </si>
   <si>
     <t xml:space="preserve">Target </t>
-  </si>
-  <si>
-    <t>0 - Neutro; 1 - Positivo; 2 - Negativo</t>
   </si>
 </sst>
 </file>
@@ -644,6 +641,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -681,11 +679,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="105" workbookViewId="0">
-      <selection activeCell="P188" sqref="P188"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,9 +1006,6 @@
       <c r="B1" t="s">
         <v>200</v>
       </c>
-      <c r="C1" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1018,6 +1014,7 @@
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">

--- a/dados_teste.xlsx
+++ b/dados_teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theok\OneDrive\Área de Trabalho\Projeto 1 Cdados 2023-2\Proj1_LEOTHEO_CDADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/leonardoar2_al_insper_edu_br/Documents/Insper/3 SEM/CDADOS_2/Projetos/Projeto 1/Proj1_LEOTHEO_CDADOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F65F33-C04F-4109-94EE-BC28B468A26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{05F65F33-C04F-4109-94EE-BC28B468A26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4416C0CF-0F09-41B7-A9FF-0019BAF23150}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,14 +622,14 @@
     <t>Realmente uma decepção, indignada com o site de não ESPECIFICAR o produto, custa colocar na descrição que é pocket ou versão econômica? Além da caixa vir toda riscada e amassada, os livros com a capa descascando e todos sujos com algo que parece cola, as folhas amassadas, rasgadas e com as palavras ''comidas''. Sinceramente nunca achei que fosse passar por uma coisa dessas, um site tão bem falado cometer um erro desse, nunca mais compro na Amazon e ainda vou abrir um processo, nada mais justo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Target </t>
+    <t>Target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +642,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -684,7 +692,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,48 +1007,47 @@
     <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1048,31 +1055,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1088,23 +1095,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1120,12 +1127,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1133,7 +1140,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1149,7 +1156,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1157,7 +1164,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1165,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1173,7 +1180,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,7 +1188,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1197,7 +1204,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1205,7 +1212,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1213,7 +1220,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1221,7 +1228,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1237,7 +1244,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1245,7 +1252,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1269,7 +1276,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1277,7 +1284,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1309,7 +1316,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1325,7 +1332,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1333,7 +1340,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1349,7 +1356,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1365,7 +1372,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1389,7 +1396,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1397,7 +1404,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1405,7 +1412,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1421,7 +1428,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1445,7 +1452,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1453,7 +1460,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1469,7 +1476,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1485,7 +1492,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1509,7 +1516,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1517,7 +1524,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1549,7 +1556,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1557,7 +1564,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1565,7 +1572,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1573,7 +1580,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1581,7 +1588,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1589,7 +1596,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1597,7 +1604,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1605,7 +1612,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1613,7 +1620,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1621,7 +1628,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1637,7 +1644,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1645,7 +1652,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1653,7 +1660,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1661,7 +1668,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1669,7 +1676,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1677,7 +1684,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1685,7 +1692,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1693,7 +1700,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1701,7 +1708,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1709,7 +1716,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1733,7 +1740,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1741,7 +1748,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1765,7 +1772,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1781,7 +1788,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1789,7 +1796,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1797,7 +1804,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1805,7 +1812,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1813,7 +1820,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1821,7 +1828,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1829,7 +1836,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1837,7 +1844,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1845,7 +1852,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1853,7 +1860,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1893,7 +1900,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1901,7 +1908,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1909,7 +1916,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1925,7 +1932,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1933,7 +1940,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1941,7 +1948,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1949,7 +1956,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1957,7 +1964,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1973,7 +1980,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1981,7 +1988,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2013,7 +2020,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -2021,7 +2028,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -2037,7 +2044,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -2077,7 +2084,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -2093,7 +2100,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2109,7 +2116,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2125,7 +2132,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -2133,7 +2140,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2157,7 +2164,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2173,7 +2180,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2181,7 +2188,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -2189,7 +2196,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -2205,7 +2212,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2213,7 +2220,7 @@
         <v>74</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -2221,7 +2228,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -2229,7 +2236,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -2245,7 +2252,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -2253,7 +2260,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -2269,7 +2276,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -2285,7 +2292,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -2293,7 +2300,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -2301,7 +2308,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -2309,7 +2316,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -2317,7 +2324,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -2333,7 +2340,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -2341,7 +2348,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -2349,7 +2356,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -2357,7 +2364,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -2381,7 +2388,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -2389,7 +2396,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -2397,7 +2404,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -2405,7 +2412,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -2413,7 +2420,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -2429,7 +2436,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -2453,7 +2460,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -2461,7 +2468,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -2469,7 +2476,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -2477,7 +2484,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -2485,7 +2492,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -2493,7 +2500,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -2501,7 +2508,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -2509,7 +2516,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -2517,7 +2524,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -2533,7 +2540,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -2541,7 +2548,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -2557,7 +2564,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -2565,7 +2572,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -2581,7 +2588,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -2589,7 +2596,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -2597,7 +2604,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
